--- a/assets/data/Text Generation/whole_data_cleaned.xlsx
+++ b/assets/data/Text Generation/whole_data_cleaned.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\wayou-lt\assets\data\Text Generation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCC37415-AAD4-4692-98CB-51742D68E40B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E6B9AAC-D1B5-4A52-A4D6-6D94A2A9A131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="15165" windowHeight="15015" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="1015">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="1197">
   <si>
     <t>name</t>
   </si>
@@ -523,24 +523,6 @@
     <t>40.99474202399425, 29.039204409442796</t>
   </si>
   <si>
-    <t>Dorock XL</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/dorockxl/</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Dorock+XL+Kad%C4%B1k%C3%B6y/@40.9897531,28.9508471,13z/data=!3m1!5s0x14cab8679a282c6d:0xfd588479cded1ce9!4m10!1m2!2m1!1sDorock+XL!3m6!1s0x14cab85d7dccd60b:0x84e2c8008eaf6d18!8m2!3d40.9897531!4d29.0229449!15sCglEb3JvY2sgWEwiA4gBAVoLIglkb3JvY2sgeGySAQxjb25jZXJ0X2hhbGzgAQA!16s%2Fg%2F11dylzv3m8?entry=ttu</t>
-  </si>
-  <si>
-    <t>Dorock XL is a popular live music venue and nightclub located in Kadıköy, known for its vibrant atmosphere and energetic performances. Guests can enjoy a variety of live music acts, including rock, jazz, blues, and electronic, performed by talented local and international artists. The nightclub's spacious dance floor and state-of-the-art sound system create an immersive experience for partygoers to dance the night away. With its eclectic lineup of events and dynamic ambiance, Dorock XL promises an unforgettable night of music and entertainment in Kadıköy.</t>
-  </si>
-  <si>
-    <t>40.987474576709864, 29.025974810980422</t>
-  </si>
-  <si>
     <t>Fil Bar</t>
   </si>
   <si>
@@ -3065,6 +3047,570 @@
   </si>
   <si>
     <t>place_id</t>
+  </si>
+  <si>
+    <t>summary</t>
+  </si>
+  <si>
+    <t>the Kadikoy Ferry Terminal serve as a major transportation hub connecting the Asian side of Istanbul to the european side via ferry services. the terminal is surrounded by bustling streets, shops, and cafes. its iconic presence symbolize the enduring link between Istanbul's european and Asian shores.</t>
+  </si>
+  <si>
+    <t>the Kadikoy Bull Statue is a beloved symbol of resilience and vitality. crowds often gather around the statue, using it as a meeting point or landmark to navigate the vibrant neighborhood. as a cultural icon, the statue embody the district's rich history and enduring character.</t>
+  </si>
+  <si>
+    <t>the Kadikoy marketplace be a vibrant hub of activity, bustling with vendors selling fresh produce, spices, textiles, and local goods. visitors are greeted by a kaleidoscope of colors, aromas, and sounds as they navigate through the lively aisles. local artisans showcase their craftsmanship, with handmade goods and traditional products adding to the market's charm.</t>
+  </si>
+  <si>
+    <t>sunbathers bask in the warm Mediterranean sun while children build sandcastles along the shoreline. with its gentle waves and clear blue waters, moda beach offer an idyllic setting for swimming and water sports. as the sun sets over the horizon, the beach transform into a romantic retreat.</t>
+  </si>
+  <si>
+    <t>IDEA Kadikoy is a dynamic public space fostering creativity and community engagement. it serve as a collaborative hub for production, interaction, learning, and experience sharing. by embracing an open - source concept, IDEA Kadikoy aim to expand and replicate its innovative model.</t>
+  </si>
+  <si>
+    <t>Fenerbahce park be a verdant waterfront oasis offering stunning views of the sea of marmara. sports enthusiasts can take advantage of the park's facilities, including basketball courts and jogging tracks. picnic areas and benches scattered throughout the park provide ideal spots for soaking up the sun.</t>
+  </si>
+  <si>
+    <t>Bagdat avenue be a bustling thoroughfare renowned for its elegant shops, vibrant cafes, and upscale restaurants. fashionistas flock to bagdat avenue to peruse its designer stores and trendy boutiques. foodies indulge in gourmet cuisine and international fare at its diverse array of eateries.</t>
+  </si>
+  <si>
+    <t>Caddebostan beach park is nestled in the heart of Kadikoy, Istanbul's Anatolian side. the park caters to diverse interests and age groups. visitors can skate by the beach, shoot hoops on the basketball court, or enjoy family picnics while children frolic in the playgrounds.</t>
+  </si>
+  <si>
+    <t>goztepe park is a lush green oasis offering a peaceful retreat from the urban hustle. nature enthusiasts can explore the park's diverse flora and fauna. families gather for picnics and outdoor activities, while children delight in playgrounds and recreational facilities.</t>
+  </si>
+  <si>
+    <t>Caddebostan beach is a scenic coastal gem nestled along the shores of the marmara sea. active visitors can partake in water sports such as paddleboarding and windsurfing. as the sun sets, Caddebostan beach become a romantic spot for couples.</t>
+  </si>
+  <si>
+    <t>the Caddebostan Cultural center be a vibrant hub of arts and culture. art enthusiasts can explore galleries showcasing contemporary and traditional works by local and international artists. families and children can participate in educational programs designed to inspire creativity and curiosity.</t>
+  </si>
+  <si>
+    <t>moda pier be a picturesque waterfront promenade offering stunning views of the marmara sea and Istanbul's iconic skyline. visitors can stroll along the pier's wooden boardwalk, taking in panoramic vistas of passing ferries.</t>
+  </si>
+  <si>
+    <t>built in the early 20th century, the station served as a gateway between Istanbul and Anatolia. today, the station stand as a symbol of Istanbul's rich history and cultural heritage. although no longer in active use for passenger trains, it remain a beloved icon of the city.</t>
+  </si>
+  <si>
+    <t>named after the celebrated Turkish playwright Haldun Taner, the stage is dedicated to promoting theatrical arts. theater enthusiasts can enjoy a variety of productions, from classic dramas to contemporary comedies. the stage also host workshops, readings, and educational programs for aspiring artists and theater enthusiasts.</t>
+  </si>
+  <si>
+    <t>marina be a popular hub for yacht owners and sailing enthusiasts seeking berthing services and maintenance support. visitors can enjoy waterfront dining at the marina's restaurants and cafes while admiring panoramic views of the marmara sea. marina also host events, boat shows, and water sports competitions throughout the year.</t>
+  </si>
+  <si>
+    <t>Yogurtcu park be a tranquil green space nestled within the heart of Kadikoy. visitors can wander along shaded pathways, surrounded by lush vegetation. playgrounds and recreational facilities offer fun and entertainment for children.</t>
+  </si>
+  <si>
+    <t>goztepe Tepe Nautilus be a modern shopping center located in Kadikoy. visitors can shop for fashion, electronics, and household goods. then enjoy a meal or catch a movie at the center's restaurants and cinemas.</t>
+  </si>
+  <si>
+    <t>moda sea club be a popular seaside venue in kadikoy. offers a range of leisure and entertainment options for visitors. host events, parties, and live music performances. a popular destination for locals and tourists alike.</t>
+  </si>
+  <si>
+    <t>Dem moda be a stylish cafe and restaurant located in the heart of moda. the cafe be a popular spot for breakfast, brunch, and casual dining with friends. a variety of Mediterranean - inspired dishes made with locally sourced ingredients.</t>
+  </si>
+  <si>
+    <t>caffe Cadde be a trendy cafe nestled along a bustling street in kadikoy. known for its artisanal coffee, delectable pastries, and cozy ambiance. the cafe's friendly baristas and welcoming atmosphere make it a favorite spot for locals and tourists alike.</t>
+  </si>
+  <si>
+    <t>Brekkie Croissant &amp; Cookie be a charming bakery and cafe located in Kadikoy. specializing in freshly baked croissants, cookies, and other delectable pastries. cozy interior and friendly staff create a warm and inviting atmosphere.</t>
+  </si>
+  <si>
+    <t>Ciya sofrasi be a renowned restaurant located in Kadikoy, celebrated for its authentic Turkish cuisine and vibrant flavors. Guests can savor a variety of traditional dishes inspired by regional specialties from across turkey.</t>
+  </si>
+  <si>
+    <t>brasserie noir be a chic restaurant and bar located in kadikoy. guests can indulge in creative cocktails, fine wines, and gourmet cuisine prepared with seasonal ingredients. the restaurant's stylish decor and elegant ambiance create a refined atmosphere for diners to enjoy an unforgettable meal or evening out.</t>
+  </si>
+  <si>
+    <t>aida vino e cucina is a charming italian restaurant nestled in the heart of Kadikoy. the restaurant's cozy interior and rustic decor create a cozy atmosphere for diners to savor a leisurely meal.</t>
+  </si>
+  <si>
+    <t>sukru Saracoglu stadium be a historic football stadium located in kadikoy. serving as the home ground for one of turkey's most successful football clubs. the stadium have a rich sporting heritage and has hosted countless memorable matches and championships over the years.</t>
+  </si>
+  <si>
+    <t>Ayia Efimia Church be a historic Greek Orthodox church located in Kadikoy. dating back to the byzantine era, the church is renowned for its beautiful architecture and intricate frescoes. the church attracts visitors from far and wide to admire its timeless beauty and spiritual ambiance.</t>
+  </si>
+  <si>
+    <t>Aya triada church be a historic Greek Orthodox church located in Kadikoy. dating back to the byzantine era, the church is adorned with intricate frescoes, ornate iconography and beautiful marble carvings.</t>
+  </si>
+  <si>
+    <t>sogutlucesme mosque be a historic mosque located in Kadikoy. the mosque feature elegant domes, intricate minarets, and ornate decorations. visitors can step inside to experience its peaceful interior and spiritual atmosphere.</t>
+  </si>
+  <si>
+    <t>hasanpasa mosque be a historic mosque located in Kadikoy. dating back to the 18th century, the mosque feature elegant domes, slender minarets, and intricate decorations. visitors can admire the mosque's exterior facade and tranquil courtyard.</t>
+  </si>
+  <si>
+    <t>the bar's eclectic decor and eclectic music selection create a welcoming ambiance for patrons to unwind and enjoy a leisurely evening out. with its affordable drinks and relaxed ambiance, Fil bar be a beloved hangout spot for locals and expats alike.</t>
+  </si>
+  <si>
+    <t>ayi pub be a lively sports bar and pub located in Kadikoy. known for its casual vibe and extensive selection of beers and spirits. ayi pub be a favorite destination for locals and tourists alike.</t>
+  </si>
+  <si>
+    <t>Belfast Irish pub be a cozy pub located in Kadikoy, known for its warm hospitality and authentic Irish ambiance. Guests can enjoy a pint of guinness or a glass of whiskey while listening to live music or playing traditional Irish tunes.</t>
+  </si>
+  <si>
+    <t>Baylan be is a historic patisserie and cafe located in Kadikoy. famous for its signature chocolate sponge cake known as the " baylan bomba ". Guests can indulge in a variety of sweet treats while sipping coffee or tea in the cafe's charming ambiance.</t>
+  </si>
+  <si>
+    <t>Founded in 1817, the shop have a long - standing reputation for its quality ingredients, authentic recipes, and impeccable craftsmanship. Guests can choose from a variety of sweet treats, including lokum ( Turkish delight ), baklava, and candied fruits.</t>
+  </si>
+  <si>
+    <t>Ali Muhiddin Haci Bekir be a historic Turkish delight shop located in Kadikoy. famous for its handcrafted lokum ( Turkish delight ), made with premium ingredients and traditional methods. Founded in 1777, the shop have a rich culinary heritage.</t>
+  </si>
+  <si>
+    <t>the history of the Kadikoy Municipal Organization date back to the 1869 Municipal Regulation. the building was designed by Armenian architect Yervant Terziyan and built on reclaimed land known as Kumluk. it was restored in 1995 and reopened in 2014 as the'Kadikoy History, Literature, and Art Library'( TESAK )</t>
+  </si>
+  <si>
+    <t>the library provide patrons with access to a wealth of information across various subjects and disciplines. state - of - the - art facilities and technology enhance the learning experience. the library also host educational programs, workshops, and cultural events.</t>
+  </si>
+  <si>
+    <t>the IMM Kadikoy Iskele library be a vibrant community hub dedicated to promoting literacy, lifelong learning, and cultural enrichment. the library provide patrons with access to a diverse range of educational materials and information. state - of - the - art facilities and technology enhance the learning experience.</t>
+  </si>
+  <si>
+    <t>the hotel is situated along the scenic shores of the marmara sea. elegant guest rooms and suites feature modern furnishings and plush bedding. its restaurants and bars offer a variety of dining options, from international cuisine to signature cocktails. its wellness facilities, including a spa and fitness center, ensure guests can relax and rejuvenate during their stay.</t>
+  </si>
+  <si>
+    <t>the hotel features elegant accommodations, upscale amenities, and personalized service for discerning travelers. Stylish guest rooms and suites boast modern design, luxurious furnishings, and state - of - the - the - art technology. its restaurants and bars offer an array of culinary delights.</t>
+  </si>
+  <si>
+    <t>Hilton Istanbul Kozyatagi be a modern upscale hotel offering sophisticated accommodations and exceptional amenities in the heart of Kadikoy. Stylish guest rooms and suites feature contemporary design, plush bedding, and state - of - the - art technology. the hotel's dining options include diverse culinary experiences, from Turkish specialties to international cuisine.</t>
+  </si>
+  <si>
+    <t>Otel suadiye be a charming boutique hotel offering stylish accommodations, personalized service, and modern amenities. nestled along the vibrant Bagdat avenue, the hotel provide easy access to shopping, dining, and entertainment options. the hotel's restaurant serve delicious Turkish and international cuisine.</t>
+  </si>
+  <si>
+    <t>the museum was founded by the renowned Turkish poet and author sunay akin. it showcases a vast collection of antique toys dating back to the 18th century. interactive workshops and educational programs offer hands - on experiences for children and families.</t>
+  </si>
+  <si>
+    <t>the baris manco museum is a cultural institution dedicated to preserving the legacy and memory of the beloved Turkish musician. Located within the artist's former residence in kadikoy, the museum offer a unique glimpse into his life, career, and artistic contributions. interactive displays and multimedia installations offer immersive experiences for fans and admirers.</t>
+  </si>
+  <si>
+    <t>the tower is situated on a small islet at the southern entrance of the bosphorus strait in Istanbul. its construction date back to 1110 when byzantine emperor Alexius Comnenus erected a wooden tower. it has been destroyed, rebuilt, and repurposed multiple times - serving as a watchtower, lighthouse, and even a quarantine station.</t>
+  </si>
+  <si>
+    <t>Salacak, nestled along the bosphorus on Istanbul's Asian side, offer a multifaceted experience for outdoor enthusiasts. cyclists can enjoy the gentle slopes and paved paths, taking in panoramic views of the maiden's tower. while runners can embark on a scenic jog along the flat terrain, breathing in the refreshing breeze from the bosphorus.</t>
+  </si>
+  <si>
+    <t>camlica hill offer a stunning panoramic view of the bosphorus. it hold historical significance from the Ottoman era. landscape be ideal for wedding photoshoots and attracts nature enthusiasts and bird watchers.</t>
+  </si>
+  <si>
+    <t>the construction of the mosque was announced by the Istanbul Mosque and Education - Culture Service Units Building and living association. the mosque, expected to become a new symbol of the city, was chosen from a competition where it received the second prize. designed by bahar mizrak and Hayriye Gul Totu, it be the largest mosque in turkey.</t>
+  </si>
+  <si>
+    <t>camlica tower stand as a testament to turkey's pioneering role in radio broadcasting. the tower revolutionize radio broadcasting with its ability to host 100 channels simultaneously without interference. constructed by local technology firms, the tower not only enhance broadcasting quality but also contributes significantly to national development.</t>
+  </si>
+  <si>
+    <t>the museum of Islamic civilizations ( MIC ) opened its doors to visitors on April 8th, 2022. it showcase artifacts spanning from the 7th to the 19th centuries. more than 400 artifacts were carefully selected from six museums and placed within the museum's exhibition space.</t>
+  </si>
+  <si>
+    <t>Fethi Pasha Grove be a spacious park nestled on a hill overlooking the bosphorus shoreline. the park is situated in the Pasalimani area between the Kuzguncuk and Sultantepe neighborhoods. the area boast amenities for recreation and enjoyment, including children's playgrounds.</t>
+  </si>
+  <si>
+    <t>commissioned by sultan Abdulaziz in the 1860s, this summer retreat was designed by Sarkis balyan in the second empire style. its historical significance is marked by notable visitors, including the sultan's mother. its bathing pavilions and reception hall adorned with french Baccarat crystal chandeliers and hereke carpets.</t>
+  </si>
+  <si>
+    <t>Validebag Grove is the second - largest green space on the Anatolian side. established as a vineyard for sultan III. selim's mother, mihrisah Valide Sultan. later passed through various hands, eventually becoming the property of the Altunizade family.</t>
+  </si>
+  <si>
+    <t>the museum offers a nostalgic journey into a significant era of Turkish cinema and popular culture. visitors can marvel at silicone sculptures of the film's actors, peruse posters and postcards showcasing memorable moments. while the museum is closed on Sundays, it welcome visitors throughout the week.</t>
+  </si>
+  <si>
+    <t>Kuzguncuk is a charming neighborhood nestled on the Asian side of Istanbul within the Uskudar district. its picturesque streets lined with colorful antique wooden houses and inviting cafes. its rich history, evident in the diverse array of religious buildings, add to its unique allure.</t>
+  </si>
+  <si>
+    <t>the mecid efendi mansion was originally built as a hunting lodge in the late 19th century. the mansion became a summer residence and art studio for Abdulmecid efendi, the caliph's uncle. despite changing hands multiple times, the mansion retained its architectural grandeur and cultural significance.</t>
+  </si>
+  <si>
+    <t>the Nakkastepe millet garden is situated in the Uskudar district of Istanbul. it was inaugurated in 2018 by the ministry of environment and urban planning in collaboration with the uskudar municipality. the garden offers a range of amenities and attractions, including picnic areas, sports grounds, tennis courts, and an adventure park with a zipline.</t>
+  </si>
+  <si>
+    <t>the historical plane tree in Cengelkoy stand as a symbol of endurance and timelessness. its weathered bark tell stories of bygone eras, while its verdant leaves whisper secrets of resilience and renewal.</t>
+  </si>
+  <si>
+    <t>uskudar gastronomy street in Istanbul offer a captivating fusion of traditional Turkish flavors and international cuisine. from quaint cafes serving aromatic Turkish coffee to family - run restaurants dishing out authentic kebabs and mezes. every corner of this street promise an unforgettable dining experience.</t>
+  </si>
+  <si>
+    <t>the kite museum offers a fascinating journey into the world of kite - flying. visitors can learn about the cultural significance of kites in different societies. from traditional handmade kites to modern innovations, the museum provide a comprehensive look at the art and history of kite - making.</t>
+  </si>
+  <si>
+    <t>the mihrimah Sultan mosque is located in the uskudar district of Istanbul. it was constructed between 1546 and 1548 by the renowned architect mimar sinan. the mosque's graceful domes, elegant minarets, and intricate tilework create a sense of grandeur.</t>
+  </si>
+  <si>
+    <t>the Tiled Mosque, also known as Mahpeyker Kosem Valide Sultan Mosque, is a stunning architectural gem. visitors are enveloped in an atmosphere of serenity and reverence, where the interplay of light and shadow dances across the intricate tilework.</t>
+  </si>
+  <si>
+    <t>nestled within the charming neighborhood of Kuzguncuk lie a treasure trove of historical houses. with distinctive features such as umbrella - roofed bay windows and intricately designed doors. each house exude its own unique character, offering a glimpse into the city's illustrious past.</t>
+  </si>
+  <si>
+    <t>established in the former marriage registration building of uskudar in 2018. it stand as a testament to the enduring legacy and cultural richness of Istanbul. the venue embody the essence of the city's culture, sounds, spirit, and beauty.</t>
+  </si>
+  <si>
+    <t>Kucuk camlica grove be a serene escape from the urban chaos of Istanbul. the grove be a popular destination for locals and tourists seeking a break from the urban environment. the lush green oasis offer a tranquil environment for picnics and leisurely walks.</t>
+  </si>
+  <si>
+    <t>20,000 marine animals and amphibians from 200 species. visitors can enjoy interactive play areas, digital experiences, and perfect photo opportunities. entrance to the aquarium is complimentary with the Istanbul tourist pass, offering access to over 100 attractions.</t>
+  </si>
+  <si>
+    <t>kidzania Istanbul be a captivating indoor theme park nestled in the heart of Istanbul, offering an immersive role - playing adventure for children between the ages of 4 and 14. this dynamic destination replicate a bustling city environment, complete with streets, buildings and a myriad of interactive activities. from aspiring firefighters to budding chefs, children have the opportunity to explore diverse roles while learning essential life skills.</t>
+  </si>
+  <si>
+    <t>IMOGA traces its roots back to the private studios established by suleyman saim tekcan in 1974. Tekcan's inclusive vision led to collaborations with other artists, fostering a vibrant creative community. in 2004, Tekcan's lifelong dedication culminated in the establishment of IMOGA, turkey's first printmaking museum.</t>
+  </si>
+  <si>
+    <t>Icadiye Caddesi in Kuzguncuk is renowned for its vibrant cultural scene and diverse food and drink establishments. from traditional Turkish meyhanes serving authentic mezes and raki to trendy cafes offering specialty coffees and pastries, the street caters to a wide range of tastes.</t>
+  </si>
+  <si>
+    <t>the facilities boast lush greenery, historic trees, colorful flowers, and stunning views of the bosphorus and the marmara sea. covering an area of 3,000 square meters, the facilities comprise a 400 - square meter indoor restaurant area. the Ottoman Café, with its decor reminiscent of the Ottoman era, invite guests to enjoy a variety of desserts and pastries.</t>
+  </si>
+  <si>
+    <t>the Semsi Pasha Mosque was designed by the renowned Ottoman architect mimar sinan for semsi pasha. the mosque complex, completed in 1580, feature a square - shaped prayer hall with a single dome. the mausoleum boast a mirror vault chamber and intricately adorned windows overlooking the bosphorus.</t>
+  </si>
+  <si>
+    <t>Filizler is a beloved culinary gem known for its mouthwatering offerings and welcoming ambiance. the menu feature a variety of meatball options, each prepared with high - quality ingredients and cooked to perfection. from traditional kofte dishes to modern twists on classic recipes, there be something to satisfy every palate.</t>
+  </si>
+  <si>
+    <t>uskudar is one of Istanbul's significant settlements. it has thrived in trade, law, culture, and arts over the centuries. its allure is further heightened by the historical interest shown by Ottoman lady sultans. the municipality embarked on a project to create a collection of dolls representing the lady sultans.</t>
+  </si>
+  <si>
+    <t>the IBB beltur pasalimani restaurant is located in the heart of the historic district of kapiteli. the restaurant offers a diverse menu featuring traditional Turkish dishes and international cuisine. the restaurant is easily accessible for both locals and tourists alike.</t>
+  </si>
+  <si>
+    <t>Istanbul Maritime Museum be Turkey's largest maritime museum and one of the world's leading museums in terms of the diversity of its collections. there are approximately 20,000 works in its collection. the museum is affiliated with the naval forces command and be the first military museum established in turkey.</t>
+  </si>
+  <si>
+    <t>asiyan museum be the house where poet Tevfik Fikret lived between 1906 - 1915 and has been serving as a museum since 1945. the belongings of poet and his family, as well as the belongings of important artists of the Tanzimat Literature are exhibited.</t>
+  </si>
+  <si>
+    <t>National Palaces Painting museum be a museum affiliated with the national palaces administration. it was opened in 2014 in the crown prince's office of dolmabahce palace. the museum is located in the dolmabahce palace.</t>
+  </si>
+  <si>
+    <t>palace collections museum be a museum exhibiting everyday life artifacts of the Ottoman imperial family. the structure was the kitchen of the dolmabahce palace built in the mid - nineteenth century by sultan Abdulmecid I.</t>
+  </si>
+  <si>
+    <t>besiktas jk museum is the first sports museum in turkey in the name of sports history and culture. it was opened as Turkey's first private sports museum in inonu stadium on December 11, 2001. the museum aims to take its guests on a pleasant journey in the digital world with its applications based on visitor experience.</t>
+  </si>
+  <si>
+    <t>Yildiz palace was built for the first time by Sultan III. it was built for selim's mother, mihrisah Sultan, especially for the Ottoman sultan II. today, it is located in besiktas district.</t>
+  </si>
+  <si>
+    <t>the collection of the fire museum ; in addition to his very different works, each of which can be considered unique in their own field. from the first " Cardakli Pump " of davud - u hakiki in 1714 to the " Neighborhood Pumps " used in the 1800s and the " Steam and Trolley Pumps " used in later years. artifacts such as clothes from the military fire department period.</t>
+  </si>
+  <si>
+    <t>dolmabahce palace be a magnificent symbol of Ottoman splendor. built in the mid-19th century, it combine European Neoclassical, Baroque, and Ottoman architectural styles. it served as the Ottoman administrative center before becoming a republic.</t>
+  </si>
+  <si>
+    <t>the mosque was built by Sultan Abdulmecid in 1853 by architect Nigogos balyan of Armenian origin. wide and high windows are arranged to carry the changing lights of the bosphorus into the mosque.</t>
+  </si>
+  <si>
+    <t>the tower showcase a fusion of european neo - baroque and Ottoman architectural styles. built in the 19th century during the reign of Sultan Abdulhamid II. it stand as a prominent landmark of Istanbul's skyline.</t>
+  </si>
+  <si>
+    <t>Yildiz Hamidiye or Yildiz Mosque is located in the northern part of barbaros Boulevard in besiktas. although its real name is hamidiye, it is better known as Yildiz Mosque.</t>
+  </si>
+  <si>
+    <t>yildiz palace is a vast complex of former imperial Ottoman pavilions and villas in besiktas, Istanbul. it was used as a residence by the sultan and his court in the late 19th century. the palace is now a museum.</t>
+  </si>
+  <si>
+    <t>the mosque was built by the Egyptian governor Koca Sinan pasha in 979 ( 1571 ) it be in a large garden surrounded by walls near the Nile river. the eastern one of the two garden entrances was demolished in 1902.</t>
+  </si>
+  <si>
+    <t>Dzinunt surp asdvadzadzni Armenian church be an Armenian church located in Sakizagaci district of Bakirkoy district of Istanbul province in turkey. the church, built by hovahannes dadyan in 1844, was repaired by decree in 1847.</t>
+  </si>
+  <si>
+    <t>the palace was designed by the Armenian palace architect Nigogayos balyan and constructed by his sons Sarkis and Hagop Balyan between 1863 and 1867. the palace was built by sultan Abdulaziz to replace the old Ciragan Palace which was at the same location. it was the last example of a period when all Ottoman sultans built their own palaces rather than</t>
+  </si>
+  <si>
+    <t>Yildiz Park be a historical park located in besiktas district of Istanbul. park has two separate gates, one on palanga street and the other on Ciragan street. park has two mansions called Malta Pavilion and cadir pavilion.</t>
+  </si>
+  <si>
+    <t>the lower part of the valley which includes the Ihlamur Pavilions belonged to the administrator of the imperial dockyard. later it was owned by the state and laid out as an imperial garden. archery stones commemorating distance shooting records in the upper part of the valley indicate that Sultan Selim III ( 1789 - 1807 ) and Sultan Mahmud II ( 1808 - 1839 ) held shooting contests with other archers near the</t>
+  </si>
+  <si>
+    <t>besiktas park will be a multi - purpose stadium with a capacity of 42,590 spectators located in the besiktas district of Istanbul. the old stadium of the host besiktas football team was demolished and built on the same land.</t>
+  </si>
+  <si>
+    <t>Panayia Greek Orthodox Church be a Greek Orthodox church located in the Besiktas district of Istanbul, turkey. the name of the church was dedicated to the death of the virgin Mary.</t>
+  </si>
+  <si>
+    <t>Bebek Park was the garden of the Humayunabad Pavilion in the 18th century. after the legitimacy, it started serving as a park in 1908. a statue of poet fuzuli was erected in the middle of the park. the park was renewed by the Sabanci Foundation in 2008.</t>
+  </si>
+  <si>
+    <t>Maslak pavilions were built by the order of Sultan Abdulaziz in 1860s and allocated by him to his nephew crown prince Abdulhamid efendi in 1868. the pavilions became home to the 34th Ottoman ruler Sultan Abdulhamid II and his family during both his years as heir apparent.</t>
+  </si>
+  <si>
+    <t>Ataturk Arboretum be a large green area where trees and woody plants are exhibited in the Sariyer district of Istanbul. it is located on the Kemerburgaz - Bahcekoy road.</t>
+  </si>
+  <si>
+    <t>Rumeli fortress is located on the bosphorus in the Sariyer district of Istanbul. it was built by fatih Sultan mehmet before the conquest of Istanbul. the three large towers of the fortress have the largest bastions in the world.</t>
+  </si>
+  <si>
+    <t>the Ural Ataman Classic Car Museum be a museum located in Istanbul. visitors encounter a vast collection showcasing historical and rare classic automobiles. the museum be a memorable destination for both locals and tourists alike.</t>
+  </si>
+  <si>
+    <t>the museum contains a rich collection of calligraphy and paintings. it hosts the works of many famous artists with the temporary exhibitions it organizes. the museum, which was opened to visitors in 2002,is located in atli Kosk, located in Emirgan.</t>
+  </si>
+  <si>
+    <t>the museum was founded in 1974 with a fund established within the Vehbi Koc foundation to exhibit the personal collection of collector sadberk koc. it be Turkey's first private museum. the museum is located in the Buyukdere district of Sariyer district of Istanbul.</t>
+  </si>
+  <si>
+    <t>Galata Mevlevihanesi, also known as Kulekapi Mevlevihanesi, be an old mevlevihanesi located in the beyoglu district of Istanbul, turkey. today, it operate as a museum under the name of Galata Mevlevi Lodge Museum.</t>
+  </si>
+  <si>
+    <t>the museum have a large collection of coins, medals, embroideries, fabrics, metal items. it have ethnographic and numismatic collections dating back to the 1950s. the museum have a coin collection of 55 thousand pieces.</t>
+  </si>
+  <si>
+    <t>the Galatasaray museum be a historical and cultural institution located in Istanbul. it showcase the rich history and achievements of Galatasaray S.K., one of Turkey's most renowned sports clubs. it serve as a hub for fans to celebrate the club's heritage and success over the years.</t>
+  </si>
+  <si>
+    <t>Orhan Kemal museum be a museum established in a three - storey building in beyoglu, Istanbul. around 70 photographs of the author, most of them taken by ara Guler, family photographs, original first editions of his books. private letters, theses and articles written about him, objects such as the typewriter he used, his personal belongings, and the mask taken from his face when</t>
+  </si>
+  <si>
+    <t>Pera museum be a private museum located in the Tepebasi district of Istanbul. established in 2005 by the suna and inan kirac foundation. aims to pass it on to the public and aims to share it with the public.</t>
+  </si>
+  <si>
+    <t>Dogancay Museum be a museum located in Istanbul. the works of Burhan Dogancay and his father Adil Dogancay are exhibited. the museum is open daily from 9am to 5pm.</t>
+  </si>
+  <si>
+    <t>the museum be actually the house where Polish poet Adam Mickiewicz once lived and died. the house was renovated after a fire in 1870. it was opened as a museum in 1955 with the help of the Literary Museum in warsaw.</t>
+  </si>
+  <si>
+    <t>military museum be is a complex of buildings with a building of 18,600 m2 built on an area of 54,000 m2. the building was established to train officers for the Ottoman empire and was built in 1862.</t>
+  </si>
+  <si>
+    <t>ataturk museum, also known as the revolution museum, be the house where mustafa kemal ataturk lived. located on Halâskârgazi street in the sisli district of Istanbul. converted into a museum by the Istanbul metropolitan municipality in 1942.</t>
+  </si>
+  <si>
+    <t>Galata tower be a tower located in the Beyoglu district of Istanbul. it take its name from the Galata district where it is located. built as a watchtower within the Galata walls, the tower serve as an exhibition venue and museum as of 2020.</t>
+  </si>
+  <si>
+    <t>the place of worship was converted into a mosque after the city came under Ottoman rule in 1453. it is located in the Galata district of the Beyoglu district of Istanbul, Turkey. the mosque was converted into a mosque after the city came under Ottoman rule in 1453.</t>
+  </si>
+  <si>
+    <t>the market was opened on march 25, 1951 by the then Chief Rabbi of Turkiye, Rav. Neve Shalom synagogue, the largest of the synagogues in Istanbul, was built by converting the ceremonial hall of the first mixed Jewish primary school.</t>
+  </si>
+  <si>
+    <t>the museum is organized inside the vaults and on the floors of the building. it was established in 2002 within the Ottoman bank Archive and Research Center. it is the first museum established by a private bank in turkey.</t>
+  </si>
+  <si>
+    <t>" it offer a diverse range of events, including exhibitions, performances, workshops, and screenings. showcasing the rich heritage of french culture and fostering cultural exchange between turkey and france. the center is located in the heart of the french quarter of the city.</t>
+  </si>
+  <si>
+    <t>it was built by Huseyin Aga, one of the lords of Galata palace. the mosque is located on Istiklal street in the beyoglu district of Istanbul. it was opened for worship in 1596.</t>
+  </si>
+  <si>
+    <t>in 1230, priests built a church around Galata in the name of their founder, st. Francis of assisi. in 1724, a new church called. St. Anthony's in pera was built and consecrated for the citizens of Catholic countries. and their families who were in the Ottoman Imperial palace and state service.</t>
+  </si>
+  <si>
+    <t>Taksim republic monument be is a monument located in Taksim square, Istanbul. commissioned by the italian sculptor pietro Canonica, two young Turks ; With the help of hadi ( bara ) bey and Sabiha ( bengutas ).</t>
+  </si>
+  <si>
+    <t>Kazanci Mosque be a mosque built in the Ottoman style in the 17th century on Kazanci hill in Taksim. it have a brick minaret and a square plan with a masonry roof.</t>
+  </si>
+  <si>
+    <t>Hagia triada be a Greek Orthodox church located in beyoglu, Istanbul. located at the intersection of Meselik street, Istiklal street and siraselviler street.</t>
+  </si>
+  <si>
+    <t>Taksim Maksemi be a building located at the intersection of Istiklal street and Taksim Square in Beyoglu, Istanbul. the name of Taksim Square come from Taksim Maksemi, where Galata - Beyoglu water used to be " divided "</t>
+  </si>
+  <si>
+    <t>Tesvikiye mosque be a mosque built by Abdulmecid in 1854 in the Tesvikiye district of Istanbul. III in 1794 - 1795 on the site of the mosque built by selim.</t>
+  </si>
+  <si>
+    <t>the pavilion was built by the order of sultan Abdulmecid. it is located in tophane, on Necatibey street and next to nusretiye mosque. the pavilion be a two - storey building with a rectangular plan.</t>
+  </si>
+  <si>
+    <t>the first mosque was built by mimar sinan for prince Cihangir by suleiman the Magnificent. the mosque was destroyed and rebuilt many times during earthquakes and fires. it was last built in 1889 during world war II.</t>
+  </si>
+  <si>
+    <t>the Kilic Ali Pasa Mosque was commissioned by the Ottoman chief admiral, Kilic Ali Pasa. Sinan worked to have the mosque resemble the Hagia Sophia. the original plans are one of the rare documents to survive intact from the 16th century.</t>
+  </si>
+  <si>
+    <t>the mosque was named in commemoration of Mahmud II's victory over the Janissaries in 1826. this victory marked a significant event in his efforts to reform the Ottoman military and society. in addition to the mosque, he also oversaw the construction of a new artillery barracks and parade ground near the mosque.</t>
+  </si>
+  <si>
+    <t>the Istanbul museum of painting and sculpture is a prominent cultural institution showcasing a rich collection of paintings and sculptures. established in [ year ], the museum occupy a historic building, adding to its charm and significance. with its diverse collection spanning various artistic movements and periods, visitors can explore works by renowned Turkish artists.</t>
+  </si>
+  <si>
+    <t>the Yeralti Mosque, also known as the Underground Mosque, be a unique historical site located in Istanbul. built during the Ottoman period, the mosque is distinguished by its underground location. accessible via a staircase, the mosque exude a serene atmosphere.</t>
+  </si>
+  <si>
+    <t>Tophane park be a charming urban green space offering respite from the bustling city life. the park feature lush gardens, shaded walkways, and picturesque fountains. with its strategic location overlooking the Bosphorus Strait, the park offer stunning views of the waterfront.</t>
+  </si>
+  <si>
+    <t>the sokollu mehmet pasha mosque is a magnificent example of Ottoman architecture and a testament to the grandeur of the empire. commissioned by sokollu mehmet pasha, the grand vizier of the Ottoman empire in the 16th century. the mosque is a place of worship and a cultural hub, attracting visitors from around the world to admire its beauty.</t>
+  </si>
+  <si>
+    <t>the Church of St. Panteleimon the Great Martyr be a historic Russian Orthodox church located in Istanbul. built in the late 19th century, this architectural gem showcase traditional Russian Orthodox design elements. Dedicated to St. Panteleimon, the patron saint of physicians and healing.</t>
+  </si>
+  <si>
+    <t>the artisans park is a tranquil green space dedicated to celebrating the rich artistic heritage of the city. visitors can explore open - air studios and workshops, where skilled artisans demonstrate traditional craftsmanship techniques. regular exhibitions, workshops, and cultural events further enrich the park's ambiance.</t>
+  </si>
+  <si>
+    <t>the Surp Krikor Lusavorich church, also known as the Church of St. Gregory the Illuminator, be a historic Armenian Apostolic church in Istanbul. built in the 19th century, the church serve as a spiritual and cultural center for the Armenian community in Istanbul.</t>
+  </si>
+  <si>
+    <t>the church is dedicated to saint Benedict of Nursia, a revered figure in Christian history. with its elegant facade, towering spire, and ornate interior adorned with religious artworks, the church stand as a symbol of Istanbul's religious heritage.</t>
+  </si>
+  <si>
+    <t>the mosque is a spiritual center for the local Muslim community and a cultural landmark for visitors. built in the 16th century, the mosque is renowned for its architectural elegance and cultural significance. named after a prominent figure in Ottoman military history, the mosque stand as a testament to Istanbul's diverse religious and architectural heritage.</t>
+  </si>
+  <si>
+    <t>the Turkish Orthodox Central Church of the Virgin Mary is located in Istanbul. it is a significant religious institution for the Turkish Orthodox community. the church feature ornate decorations, colorful iconography, and intricate domes, reflecting the rich religious heritage of the Orthodox faith.</t>
+  </si>
+  <si>
+    <t>the saint Nicholas church, also known as aya Nikola church, be a historic Orthodox church located in Istanbul. the church date back to the byzantine era and holds great significance in both religious and architectural terms. Dedicated to saint nicole, the patron saint of sailors and travelers.</t>
+  </si>
+  <si>
+    <t>the Suleymaniye Mosque is one of the most magnificent landmarks in Istanbul and is often regarded as one of the finest examples of Ottoman architecture. the mosque complex also include a library, hospital, madrasas, and various charitable institutions. the mosque continue to be a place of worship, pilgrimage, and cultural exchange, welcoming visitors from around the world.</t>
+  </si>
+  <si>
+    <t>the mosque was originally part of a complex that served as a soup kitchen to provide food for the needy. although it no longer functions as a soup kitchen, the mosque continue to serve as a place of worship for the local Muslim community.</t>
+  </si>
+  <si>
+    <t>the monument commemorates Sultan Mehmed II's conquest of Constantinople in 1453. the conquest marked the end of the byzantine empire and the beginning of the Ottoman empire. the monument typically feature a statue of Sultan Mehmed II atop a pedestal.</t>
+  </si>
+  <si>
+    <t>the Sehzade Mehmet Mosque, also known as the Prince Mehmet Mosque, is an iconic landmark in Istanbul. commissioned by sultan suleyman the Magnificent and designed by the renowned Ottoman architect mimar sinan. the mosque complex also include a madrasa, a hospital, and other charitable institutions.</t>
+  </si>
+  <si>
+    <t>the Sarachane archaeology park is a peaceful green space nestled amidst the bustling cityscape. the park serve as a gateway to Istanbul's rich archaeological heritage. within the park, visitors can explore various archaeological remains and artifacts.</t>
+  </si>
+  <si>
+    <t>commissioned by sultan mehmed the conqueror and completed in 1470. stand as a symbol of the Ottoman empire's triumph over the capital of the byzantine empire. surrounded by a spacious courtyard and adorned with beautiful gardens.</t>
+  </si>
+  <si>
+    <t>the tomb serve as the final resting place for one of the most prominent figures in Ottoman history. built following the death of Sultan Mehmed II, also known as Mehmed the conqueror, in 1481. the tomb be a testament to the grandeur and power of the Ottoman empire during the reign of mehmed II.</t>
+  </si>
+  <si>
+    <t>the Piri Mehmet Pasha Mosque, also known as Piri Mehmet Pasa camii in Turkish, is a historic mosque located in Istanbul. commissioned by Piri mehmet pasha, who served as the grand vizier of the Ottoman empire during the 16th century. the mosque exemplify classical Ottoman architectural style with its central dome, semi - domes, and sl</t>
+  </si>
+  <si>
+    <t>the aqueduct was built during the reign of roman emperor valens in the 4th century AD. it served as one of the major water supply systems for the city of Constantinople. the aqueduct stretch over 970 meters ( 3,180 feet ) across the city.</t>
+  </si>
+  <si>
+    <t>the Zeyrek Mosque is a historic mosque located in the Fatih district of Istanbul. it was originally constructed as a Byzantine monastery in the 12th century. it was converted into a mosque after the Ottoman conquest of Constantinople in 1453.</t>
+  </si>
+  <si>
+    <t>the Eyup Sultan Mosque is one of the most significant religious landmarks in the city. built in the 18th century, it is built near the tomb of Abu Ayyub al - ansari, a companion of the prophet. every year, thousands of pilgrims and visitors from around the world come to the mosque to pay their respects.</t>
+  </si>
+  <si>
+    <t>the tomb stand as a testament to the architectural and cultural legacy of the Ottoman empire. built in memory of Ferhad pasha, a prominent figure in the Ottoman government during the 15th century. visitors can find a peaceful courtyard adorned with lush greenery and traditional Ottoman architecture.</t>
+  </si>
+  <si>
+    <t>the Rahmi M. Koc museum is situated in the historic district of beyoglu, overlooking the golden horn. the museum showcase a vast collection of artifacts, exhibits, and interactive displays spanning various sectors. founded by a prominent Turkish businessman and philanthropist.</t>
+  </si>
+  <si>
+    <t>Pierre loti hill be a picturesque hilltop offering panoramic views of the city and the golden horn. named after the french writer and naval officer Pierre loti, who frequented the area in the late 19th century. visitors can reach the summit by a historic cable car ride or by climbing a series of stairs.</t>
+  </si>
+  <si>
+    <t>the Golden Horn Metro Bridge, locally known as the " Halic Koprusu " in Turkish, is a modern bridge that crosses the Golden Horn inlet in Istanbul. the bridge serves as a crucial transportation link, connecting the neighborhoods of beyoglu and fatih on the european side of Istanbul.</t>
+  </si>
+  <si>
+    <t>the mosque was originally built as a byzantine church in the 4th century. it was later converted into a mosque during the Ottoman period. the mosque is celebrated for its intricate mosaics and frescoes.</t>
+  </si>
+  <si>
+    <t>the Vlaherna Meryem Ana church is situated in the Balat neighborhood of Istanbul. the church has been a place of pilgrimage for centuries. visitors can find religious icons, frescoes, and relics dedicated to the virgin.</t>
+  </si>
+  <si>
+    <t>the mosque was commissioned by a prominent Ottoman statesman and built in the 16th century. inside, visitors can admire intricate tilework, calligraphy, and geometric patterns. located in the fatih district of Istanbul, the mosque continue to be a cherished symbol of the city's rich cultural heritage and religious diversity.</t>
+  </si>
+  <si>
+    <t>the Hagia Sophia Grand Mosque in Istanbul is one of the most iconic and significant landmarks in the city. originally built as a Byzantine cathedral in the 6th century, it served as the center of Orthodox Christianity for nearly a millennium. it was converted into a mosque following the Ottoman conquest of Constantinople in 1453.</t>
+  </si>
+  <si>
+    <t>the Basilica Cistern was constructed in the 6th century during the reign of emperor Justinian I. the cistern was constructed to store and supply water to the city of Constantinople ( present - day Istanbul) the cistern features a forest of 336 marble columns arranged in 12 rows.</t>
+  </si>
+  <si>
+    <t>commissioned by sultan Ahmed I in the early 17th century, this mosque is renowned for its stunning blue tiles. it be an iconic symbol of Istanbul's skyline, attracting millions of tourists and worshippers each year.</t>
+  </si>
+  <si>
+    <t>the palace was built in the 15th century by sultan mehmed II shortly after the conquest of Constantinople. it became the symbolic heart of the Ottoman empire and a symbol of its grandeur and power. visitors can explore its opulent interiors adorned with intricate tilework, gilded ceilings and priceless artifacts.</t>
+  </si>
+  <si>
+    <t>Sultanahmet square has served as a significant social and political hub since byzantine times. it was a chariot - racing stadium and features several ancient monuments, including the the theodosius obelisk. the square is surrounded by iconic landmarks such as the blue mosque, Hagia Sophia, and the basilica citstern.</t>
+  </si>
+  <si>
+    <t>Gulhane park is situated between the topkapi palace and the Sultanahmet square in the heart of Istanbul. the park was originally part of the outer garden of the topkapi palace during the Ottoman period. it was opened to the public in the 19th century and has since become a beloved recreational area.</t>
+  </si>
+  <si>
+    <t>carved from red granite during the reign of pharaoh Thutmose III around 1450 BC. in the late 4th century AD, roman Emperor theodosius I transported the obelisk to Constantinople and erected it in the hippodrome. today, the obelisk remain a prominent historical landmark, symbolizing the city's ancient connections and rich cultural heritage.</t>
+  </si>
+  <si>
+    <t>the museum complex consist of three main buildings : the Archaeology Museum, the Museum of the Ancient Orient, and the Museum of Islamic Art. visitors can explore exhibits featuring artifacts from various ancient civilizations, including the Greek, Roman, and byzantine periods. the Museum of the Ancient Orient focus on the civilizations of Mesopotamia, Anatolia, and Egypt.</t>
+  </si>
+  <si>
+    <t>Originally built as a church in the 6th century, this architectural marvel was later converted into a mosque during the Ottoman period. its compact size and intimate atmosphere make it a lesser - known but equally enchanting destination for visitors.</t>
+  </si>
+  <si>
+    <t>cagaloglu hamam is one of the city's oldest and most iconic Turkish bathhouses. built in the 18th century during the Ottoman period, the hamam exemplifies the classical Ottoman architecture. guests can experience the timeless tradition of Turkish bathing in a steam - filled environment.</t>
+  </si>
+  <si>
+    <t>the complex was originally built as a hammam ( Turkish bath ) during the Ottoman period. it has been meticulously renovated to serve as a venue for various cultural activities and performances. performances include traditional Turkish music and dance performances, sufi music concerts, and whirling dervish ceremonies.</t>
+  </si>
+  <si>
+    <t>the museum be one of the most comprehensive institutions of its kind. its collection span a wide range of artifacts dating from various periods of Turkish and Islamic history. highlights of the museum's collection include rare Qurans, illuminated manuscripts, ornate carpets.</t>
+  </si>
+  <si>
+    <t>the Hagia Sophia Hurrem Sultan Bathhouse was built in the 16th century by the wife of sultan suleiman the magnificent. the bathhouse is a splendid example of Ottoman - era bathing culture and architectural grandeur. visitors can experience the traditional Turkish bathing ritual in a setting of unparalleled beauty and luxury.</t>
+  </si>
+  <si>
+    <t>the heritage nomadic art gallery is situated in Istanbul's vibrant cultural district. the gallery feature a diverse collection of nomadic art and artifacts sourced from various nomadic tribes and cultures. each piece tell a story of tradition, craftsmanship and resilience.</t>
+  </si>
+  <si>
+    <t>the Cistern of theodosius be awe - inspiring testament to the engineering prowess of the byzantine empire. built during the reign of Emperor theodosius II in the 5th century AD, the cistern served as a crucial water storage facility for the city. today, the cistern is more commonly referred to as the Yerebatan Sarnici, which</t>
+  </si>
+  <si>
+    <t>the Great Palace Mosaics Museum is situated in the heart of Istanbul's historic district. the museum feature a remarkable collection of ancient mosaic floors dating back to the 5th and 6th centuries AD. the mosaic floors were excavated in the 20th century during archaeological digs.</t>
+  </si>
+  <si>
+    <t>cafer Aga madrasa was built in the 16th century during the reign of sultan suleyman the magnificent. the madrasa served as a center for Islamic learning and scholarship, offering courses in theology, law, and the Quranic sciences. today, the building is often used for cultural events, exhibitions, and educational programs.</t>
+  </si>
+  <si>
+    <t>officially opened in 1890, the station quickly gained prominence as the terminus of the legendary Orient express. the station is celebrated for its exquisite architectural style, blending elements of Neo - Renaissance and Orientalism. today, the station continue to serve as a vital transportation hub in Istanbul, facilitating both domestic and international train services.</t>
+  </si>
+  <si>
+    <t>the column was originally erected in the 5th century Bce at the sanctuary of Apollo in Delphi. it was later relocated to Constantinople by the roman Emperor Constantine the great in the 4th century CE. the heads of the serpents were originally adorned with golden crowns.</t>
+  </si>
+  <si>
+    <t>the Istanbul museum of the history of science and technology in Islam be a captivating institution nestled within the historic district of fatih in Istanbul. its exhibits showcase a wide range of scientific and technological achievements from the Islamic golden age. visitors of all ages can engage with hands - on activities and educational programs that offer a deeper understanding of the role of science and technology in shaping human history.</t>
+  </si>
+  <si>
+    <t>the tiled pavilion was built in the early 16th century during the reign of sultan mehmed II. the pavilion is renowned for its exquisite tilework, which adorns the interior and exterior walls. today, the tiled pavilion museum house a remarkable collection of Ottoman ceramics dating from the 15th to the 17th centuries.</t>
+  </si>
+  <si>
+    <t>the stone was erected by emperor Constantine the great in the 4th century AD. it served as the starting point of the road network in the Byzantine empire. today, the stone is a popular tourist attraction in the heart of the city.</t>
+  </si>
+  <si>
+    <t>commissioned by the grand vizier of sultan bayezid II in the early 16th century. the mosque is renowned for its elegant Ottoman design and striking beauty. the exterior of the mosque feature intricate stone carvings and decorative elements. the interior is adorned with exquisite tilework and calligraphy.</t>
+  </si>
+  <si>
+    <t>the Obelisk of Constantine be an impressive stone structure erected in honor of the Roman Emperor Constantine VII. originally, it stood in the Temple of Karnak in Egypt but was relocated to Constantinople by Emperor theodosius I in 390 AD. it is richly decorated with Egyptian hieroglyphs commemorating the deeds of pharaoh Thutmose III.</t>
+  </si>
+  <si>
+    <t>the bukoleon palace was built during the reign of the byzantine emperor theophilos in the 9th century AD. the palace complex consisted of multiple buildings, courtyards, and gardens arranged around a central axis. its grandeur and splendor reflected the wealth and power of the imperial court.</t>
+  </si>
+  <si>
+    <t>Saint Stephen's Orthodox Church, also known as the Bulgarian St. Stephen Church, is a beautiful church in the heart of Istanbul. built in the mid-19th century during the Ottoman empire, the church served as a place of worship for the Bulgarian Orthodox community in Istanbul. it is a symbol of religious tolerance and cultural diversity in turkey.</t>
+  </si>
+  <si>
+    <t>the Venerable Patriarchal Church of Saint George stand as an iconic symbol of Orthodox Christianity in Istanbul. it serves as the principal church of the Ecumenical Patriarchate of Constantinople and holds deep spiritual and cultural significance. the church is dedicated to saint george, the legendary Christian martyr and patron saint of soldiers.</t>
+  </si>
+  <si>
+    <t>the Yavuz Sultan selim mosque is one of the largest and most important mosques in Istanbul. the mosque was commissioned by the ninth sultan of the ottoman empire, suleiman the magnificent. its monumental structure feature a central dome surrounded by four towering minarets symbolizing the empire's power.</t>
+  </si>
+  <si>
+    <t>palace of the porphyrogenitus be a remarkable byzantine structure situated in the heart of Istanbul's historic district. built during the reign of the byzantine emperors and their families during the 13th century. palace is renowned for its distinctive architectural style, characterized by its red brick walls and ornate decoration.</t>
+  </si>
+  <si>
+    <t>the column was built in the 5th century by the eastern roman emperor marcian to commemorate his victories over the sassanian empire. the column rise to a height of approximately 15 meters ( 49 feet ) and features a corinthian capital adorned with intricate carvings. at its pinnacle once stood a statue of the emperor Marcian, although this has long since been lost to history</t>
+  </si>
+  <si>
+    <t>the Beyazit tower was built in the early 19th century as part of a network of fire lookout towers. it also served as a landmark for sailors navigating the waters of the bosphorus from miles away. the tower has undergone several renovations and restorations to preserve its historical significance.</t>
+  </si>
+  <si>
+    <t>the Grand Bazaar be a bustling labyrinth of narrow alleys, bustling with activity and brimming with history. the bazaar be home to thousands of shops, stalls, and vendors selling a dazzling array of goods. its maze - like layout and ornate architecture reflect the rich heritage and multicultural influences of Istanbul.</t>
+  </si>
+  <si>
+    <t>the ruins of the once - grand church were dedicated to the philanthropic principles of Christian charity and benevolence. though time and neglect have taken their toll, the remnants still bear traces of their former glory. today, the ruins stand as a testament to the passage of time and the resilience of Istanbul's architectural heritage.</t>
   </si>
 </sst>
 </file>
@@ -3427,25 +3973,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I189"/>
+  <dimension ref="A1:J188"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C189"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I188"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="255.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="61.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="176.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="255.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="255.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="176.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="38.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3453,7 +4000,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1014</v>
+        <v>1008</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -3471,10 +4018,13 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -3500,10 +4050,13 @@
         <v>12</v>
       </c>
       <c r="I2" t="s">
+        <v>1010</v>
+      </c>
+      <c r="J2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -3529,10 +4082,13 @@
         <v>18</v>
       </c>
       <c r="I3" t="s">
+        <v>1011</v>
+      </c>
+      <c r="J3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -3558,10 +4114,13 @@
         <v>24</v>
       </c>
       <c r="I4" t="s">
+        <v>1012</v>
+      </c>
+      <c r="J4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -3587,10 +4146,13 @@
         <v>30</v>
       </c>
       <c r="I5" t="s">
+        <v>1013</v>
+      </c>
+      <c r="J5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -3616,10 +4178,13 @@
         <v>36</v>
       </c>
       <c r="I6" t="s">
+        <v>1014</v>
+      </c>
+      <c r="J6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -3645,10 +4210,13 @@
         <v>41</v>
       </c>
       <c r="I7" t="s">
+        <v>1015</v>
+      </c>
+      <c r="J7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -3674,10 +4242,13 @@
         <v>46</v>
       </c>
       <c r="I8" t="s">
+        <v>1016</v>
+      </c>
+      <c r="J8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -3703,10 +4274,13 @@
         <v>51</v>
       </c>
       <c r="I9" t="s">
+        <v>1017</v>
+      </c>
+      <c r="J9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>53</v>
       </c>
@@ -3732,10 +4306,13 @@
         <v>56</v>
       </c>
       <c r="I10" t="s">
+        <v>1018</v>
+      </c>
+      <c r="J10" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>58</v>
       </c>
@@ -3746,7 +4323,7 @@
         <v>124157</v>
       </c>
       <c r="D11" t="s">
-        <v>1010</v>
+        <v>1004</v>
       </c>
       <c r="E11" t="s">
         <v>59</v>
@@ -3761,10 +4338,13 @@
         <v>61</v>
       </c>
       <c r="I11" t="s">
+        <v>1019</v>
+      </c>
+      <c r="J11" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>63</v>
       </c>
@@ -3790,10 +4370,13 @@
         <v>67</v>
       </c>
       <c r="I12" t="s">
+        <v>1020</v>
+      </c>
+      <c r="J12" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>69</v>
       </c>
@@ -3804,7 +4387,7 @@
         <v>131564</v>
       </c>
       <c r="D13" t="s">
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="E13" t="s">
         <v>70</v>
@@ -3819,10 +4402,13 @@
         <v>72</v>
       </c>
       <c r="I13" t="s">
+        <v>1021</v>
+      </c>
+      <c r="J13" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>74</v>
       </c>
@@ -3848,10 +4434,13 @@
         <v>78</v>
       </c>
       <c r="I14" t="s">
+        <v>1022</v>
+      </c>
+      <c r="J14" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>80</v>
       </c>
@@ -3877,10 +4466,13 @@
         <v>83</v>
       </c>
       <c r="I15" t="s">
+        <v>1023</v>
+      </c>
+      <c r="J15" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>85</v>
       </c>
@@ -3906,10 +4498,13 @@
         <v>89</v>
       </c>
       <c r="I16" t="s">
+        <v>1024</v>
+      </c>
+      <c r="J16" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>91</v>
       </c>
@@ -3935,10 +4530,13 @@
         <v>94</v>
       </c>
       <c r="I17" t="s">
+        <v>1025</v>
+      </c>
+      <c r="J17" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>96</v>
       </c>
@@ -3964,10 +4562,13 @@
         <v>100</v>
       </c>
       <c r="I18" t="s">
+        <v>1026</v>
+      </c>
+      <c r="J18" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>102</v>
       </c>
@@ -3993,10 +4594,13 @@
         <v>106</v>
       </c>
       <c r="I19" t="s">
+        <v>1027</v>
+      </c>
+      <c r="J19" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>108</v>
       </c>
@@ -4022,10 +4626,13 @@
         <v>112</v>
       </c>
       <c r="I20" t="s">
+        <v>1028</v>
+      </c>
+      <c r="J20" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>114</v>
       </c>
@@ -4036,7 +4643,7 @@
         <v>898991</v>
       </c>
       <c r="D21" t="s">
-        <v>1012</v>
+        <v>1006</v>
       </c>
       <c r="E21" t="s">
         <v>115</v>
@@ -4051,10 +4658,13 @@
         <v>117</v>
       </c>
       <c r="I21" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J21" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>119</v>
       </c>
@@ -4065,7 +4675,7 @@
         <v>195027</v>
       </c>
       <c r="D22" t="s">
-        <v>1013</v>
+        <v>1007</v>
       </c>
       <c r="E22" t="s">
         <v>120</v>
@@ -4080,10 +4690,13 @@
         <v>122</v>
       </c>
       <c r="I22" t="s">
+        <v>1030</v>
+      </c>
+      <c r="J22" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>124</v>
       </c>
@@ -4109,10 +4722,13 @@
         <v>128</v>
       </c>
       <c r="I23" t="s">
+        <v>1031</v>
+      </c>
+      <c r="J23" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>130</v>
       </c>
@@ -4138,10 +4754,13 @@
         <v>133</v>
       </c>
       <c r="I24" t="s">
+        <v>1032</v>
+      </c>
+      <c r="J24" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>135</v>
       </c>
@@ -4167,10 +4786,13 @@
         <v>138</v>
       </c>
       <c r="I25" t="s">
+        <v>1033</v>
+      </c>
+      <c r="J25" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>140</v>
       </c>
@@ -4196,10 +4818,13 @@
         <v>144</v>
       </c>
       <c r="I26" t="s">
+        <v>1034</v>
+      </c>
+      <c r="J26" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>146</v>
       </c>
@@ -4225,10 +4850,13 @@
         <v>150</v>
       </c>
       <c r="I27" t="s">
+        <v>1035</v>
+      </c>
+      <c r="J27" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>152</v>
       </c>
@@ -4254,10 +4882,13 @@
         <v>155</v>
       </c>
       <c r="I28" t="s">
+        <v>1036</v>
+      </c>
+      <c r="J28" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>157</v>
       </c>
@@ -4283,10 +4914,13 @@
         <v>160</v>
       </c>
       <c r="I29" t="s">
+        <v>1037</v>
+      </c>
+      <c r="J29" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>162</v>
       </c>
@@ -4312,398 +4946,440 @@
         <v>165</v>
       </c>
       <c r="I30" t="s">
+        <v>1038</v>
+      </c>
+      <c r="J30" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>167</v>
       </c>
       <c r="B31">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="C31">
-        <v>744985</v>
-      </c>
-      <c r="D31" t="s">
+        <v>846545</v>
+      </c>
+      <c r="D31">
+        <v>15</v>
+      </c>
+      <c r="E31" t="s">
         <v>168</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>169</v>
-      </c>
-      <c r="F31" t="s">
-        <v>170</v>
       </c>
       <c r="G31">
         <v>2</v>
       </c>
       <c r="H31" t="s">
+        <v>170</v>
+      </c>
+      <c r="I31" t="s">
+        <v>1039</v>
+      </c>
+      <c r="J31" t="s">
         <v>171</v>
       </c>
-      <c r="I31" t="s">
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>173</v>
-      </c>
       <c r="B32">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="C32">
-        <v>846545</v>
+        <v>656298</v>
       </c>
       <c r="D32">
         <v>15</v>
       </c>
       <c r="E32" t="s">
+        <v>173</v>
+      </c>
+      <c r="F32" t="s">
         <v>174</v>
-      </c>
-      <c r="F32" t="s">
-        <v>175</v>
       </c>
       <c r="G32">
         <v>2</v>
       </c>
       <c r="H32" t="s">
+        <v>175</v>
+      </c>
+      <c r="I32" t="s">
+        <v>1040</v>
+      </c>
+      <c r="J32" t="s">
         <v>176</v>
       </c>
-      <c r="I32" t="s">
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>178</v>
-      </c>
       <c r="B33">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="C33">
-        <v>656298</v>
+        <v>820326</v>
       </c>
       <c r="D33">
         <v>15</v>
       </c>
       <c r="E33" t="s">
+        <v>178</v>
+      </c>
+      <c r="F33" t="s">
         <v>179</v>
-      </c>
-      <c r="F33" t="s">
-        <v>180</v>
       </c>
       <c r="G33">
         <v>2</v>
       </c>
       <c r="H33" t="s">
+        <v>180</v>
+      </c>
+      <c r="I33" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J33" t="s">
         <v>181</v>
       </c>
-      <c r="I33" t="s">
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="B34">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C34">
+        <v>479281</v>
+      </c>
+      <c r="D34">
+        <v>14.15</v>
+      </c>
+      <c r="E34" t="s">
         <v>183</v>
       </c>
-      <c r="B34">
-        <v>4.2</v>
-      </c>
-      <c r="C34">
-        <v>820326</v>
-      </c>
-      <c r="D34">
-        <v>15</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>184</v>
-      </c>
-      <c r="F34" t="s">
-        <v>185</v>
       </c>
       <c r="G34">
         <v>2</v>
       </c>
       <c r="H34" t="s">
+        <v>185</v>
+      </c>
+      <c r="I34" t="s">
+        <v>1042</v>
+      </c>
+      <c r="J34" t="s">
         <v>186</v>
       </c>
-      <c r="I34" t="s">
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>188</v>
-      </c>
       <c r="B35">
-        <v>4.9000000000000004</v>
+        <v>4.7</v>
       </c>
       <c r="C35">
-        <v>479281</v>
+        <v>165264</v>
       </c>
       <c r="D35">
         <v>14.15</v>
       </c>
       <c r="E35" t="s">
+        <v>188</v>
+      </c>
+      <c r="F35" t="s">
         <v>189</v>
-      </c>
-      <c r="F35" t="s">
-        <v>190</v>
       </c>
       <c r="G35">
         <v>2</v>
       </c>
       <c r="H35" t="s">
+        <v>190</v>
+      </c>
+      <c r="I35" t="s">
+        <v>1043</v>
+      </c>
+      <c r="J35" t="s">
         <v>191</v>
       </c>
-      <c r="I35" t="s">
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>192</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>193</v>
       </c>
       <c r="B36">
         <v>4.7</v>
       </c>
       <c r="C36">
-        <v>165264</v>
+        <v>883675</v>
       </c>
       <c r="D36">
         <v>14.15</v>
       </c>
       <c r="E36" t="s">
+        <v>193</v>
+      </c>
+      <c r="F36" t="s">
         <v>194</v>
-      </c>
-      <c r="F36" t="s">
-        <v>195</v>
       </c>
       <c r="G36">
         <v>2</v>
       </c>
       <c r="H36" t="s">
+        <v>195</v>
+      </c>
+      <c r="I36" t="s">
+        <v>1044</v>
+      </c>
+      <c r="J36" t="s">
         <v>196</v>
       </c>
-      <c r="I36" t="s">
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="B37">
+        <v>4.3</v>
+      </c>
+      <c r="C37">
+        <v>161477</v>
+      </c>
+      <c r="D37">
+        <v>8</v>
+      </c>
+      <c r="E37" t="s">
         <v>198</v>
       </c>
-      <c r="B37">
-        <v>4.7</v>
-      </c>
-      <c r="C37">
-        <v>883675</v>
-      </c>
-      <c r="D37">
-        <v>14.15</v>
-      </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>199</v>
-      </c>
-      <c r="F37" t="s">
-        <v>200</v>
       </c>
       <c r="G37">
         <v>2</v>
       </c>
       <c r="H37" t="s">
+        <v>200</v>
+      </c>
+      <c r="I37" t="s">
+        <v>1045</v>
+      </c>
+      <c r="J37" t="s">
         <v>201</v>
       </c>
-      <c r="I37" t="s">
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>203</v>
-      </c>
       <c r="B38">
-        <v>4.3</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C38">
-        <v>161477</v>
+        <v>407442</v>
       </c>
       <c r="D38">
         <v>8</v>
       </c>
       <c r="E38" t="s">
+        <v>203</v>
+      </c>
+      <c r="F38" t="s">
         <v>204</v>
-      </c>
-      <c r="F38" t="s">
-        <v>205</v>
       </c>
       <c r="G38">
         <v>2</v>
       </c>
       <c r="H38" t="s">
+        <v>205</v>
+      </c>
+      <c r="I38" t="s">
+        <v>1046</v>
+      </c>
+      <c r="J38" t="s">
         <v>206</v>
       </c>
-      <c r="I38" t="s">
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>208</v>
-      </c>
       <c r="B39">
-        <v>4.5999999999999996</v>
+        <v>4.7</v>
       </c>
       <c r="C39">
-        <v>407442</v>
+        <v>775469</v>
       </c>
       <c r="D39">
         <v>8</v>
       </c>
       <c r="E39" t="s">
+        <v>208</v>
+      </c>
+      <c r="F39" t="s">
         <v>209</v>
-      </c>
-      <c r="F39" t="s">
-        <v>210</v>
       </c>
       <c r="G39">
         <v>2</v>
       </c>
       <c r="H39" t="s">
+        <v>210</v>
+      </c>
+      <c r="I39" t="s">
+        <v>1047</v>
+      </c>
+      <c r="J39" t="s">
         <v>211</v>
       </c>
-      <c r="I39" t="s">
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>212</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>213</v>
       </c>
       <c r="B40">
         <v>4.7</v>
       </c>
       <c r="C40">
-        <v>775469</v>
+        <v>616147</v>
       </c>
       <c r="D40">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E40" t="s">
+        <v>213</v>
+      </c>
+      <c r="F40" t="s">
         <v>214</v>
-      </c>
-      <c r="F40" t="s">
-        <v>215</v>
       </c>
       <c r="G40">
         <v>2</v>
       </c>
       <c r="H40" t="s">
+        <v>215</v>
+      </c>
+      <c r="I40" t="s">
+        <v>1048</v>
+      </c>
+      <c r="J40" t="s">
         <v>216</v>
       </c>
-      <c r="I40" t="s">
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>218</v>
-      </c>
       <c r="B41">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="C41">
-        <v>616147</v>
+        <v>958153</v>
       </c>
       <c r="D41">
         <v>22</v>
       </c>
       <c r="E41" t="s">
+        <v>218</v>
+      </c>
+      <c r="F41" t="s">
         <v>219</v>
-      </c>
-      <c r="F41" t="s">
-        <v>220</v>
       </c>
       <c r="G41">
         <v>2</v>
       </c>
       <c r="H41" t="s">
+        <v>220</v>
+      </c>
+      <c r="I41" t="s">
+        <v>1049</v>
+      </c>
+      <c r="J41" t="s">
         <v>221</v>
       </c>
-      <c r="I41" t="s">
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>223</v>
-      </c>
       <c r="B42">
-        <v>4.8</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C42">
-        <v>958153</v>
+        <v>507399</v>
       </c>
       <c r="D42">
         <v>22</v>
       </c>
       <c r="E42" t="s">
+        <v>223</v>
+      </c>
+      <c r="F42" t="s">
         <v>224</v>
-      </c>
-      <c r="F42" t="s">
-        <v>225</v>
       </c>
       <c r="G42">
         <v>2</v>
       </c>
       <c r="H42" t="s">
+        <v>225</v>
+      </c>
+      <c r="I42" t="s">
+        <v>1050</v>
+      </c>
+      <c r="J42" t="s">
         <v>226</v>
       </c>
-      <c r="I42" t="s">
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>228</v>
-      </c>
       <c r="B43">
-        <v>4.4000000000000004</v>
+        <v>4</v>
       </c>
       <c r="C43">
-        <v>507399</v>
+        <v>201075</v>
       </c>
       <c r="D43">
         <v>22</v>
       </c>
       <c r="E43" t="s">
+        <v>228</v>
+      </c>
+      <c r="F43" t="s">
         <v>229</v>
-      </c>
-      <c r="F43" t="s">
-        <v>230</v>
       </c>
       <c r="G43">
         <v>2</v>
       </c>
       <c r="H43" t="s">
+        <v>230</v>
+      </c>
+      <c r="I43" t="s">
+        <v>1051</v>
+      </c>
+      <c r="J43" t="s">
         <v>231</v>
       </c>
-      <c r="I43" t="s">
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="B44">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C44">
+        <v>704220</v>
+      </c>
+      <c r="D44" t="s">
         <v>233</v>
-      </c>
-      <c r="B44">
-        <v>4</v>
-      </c>
-      <c r="C44">
-        <v>201075</v>
-      </c>
-      <c r="D44">
-        <v>22</v>
       </c>
       <c r="E44" t="s">
         <v>234</v>
@@ -4718,18 +5394,21 @@
         <v>236</v>
       </c>
       <c r="I44" t="s">
+        <v>1052</v>
+      </c>
+      <c r="J44" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>238</v>
       </c>
       <c r="B45">
-        <v>4.5999999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="C45">
-        <v>704220</v>
+        <v>401221</v>
       </c>
       <c r="D45" t="s">
         <v>239</v>
@@ -4747,18 +5426,21 @@
         <v>242</v>
       </c>
       <c r="I45" t="s">
+        <v>1053</v>
+      </c>
+      <c r="J45" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>244</v>
       </c>
       <c r="B46">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="C46">
-        <v>401221</v>
+        <v>286657</v>
       </c>
       <c r="D46" t="s">
         <v>245</v>
@@ -4770,56 +5452,62 @@
         <v>247</v>
       </c>
       <c r="G46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H46" t="s">
         <v>248</v>
       </c>
       <c r="I46" t="s">
+        <v>1054</v>
+      </c>
+      <c r="J46" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>250</v>
       </c>
       <c r="B47">
-        <v>4.7</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C47">
-        <v>286657</v>
-      </c>
-      <c r="D47" t="s">
+        <v>965587</v>
+      </c>
+      <c r="D47">
+        <v>9.1199999999999992</v>
+      </c>
+      <c r="E47" t="s">
         <v>251</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>252</v>
-      </c>
-      <c r="F47" t="s">
-        <v>253</v>
       </c>
       <c r="G47">
         <v>1</v>
       </c>
       <c r="H47" t="s">
+        <v>253</v>
+      </c>
+      <c r="I47" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J47" t="s">
         <v>254</v>
       </c>
-      <c r="I47" t="s">
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="B48">
+        <v>4.7</v>
+      </c>
+      <c r="C48">
+        <v>331296</v>
+      </c>
+      <c r="D48" t="s">
         <v>256</v>
-      </c>
-      <c r="B48">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="C48">
-        <v>965587</v>
-      </c>
-      <c r="D48">
-        <v>9.1199999999999992</v>
       </c>
       <c r="E48" t="s">
         <v>257</v>
@@ -4834,50 +5522,56 @@
         <v>259</v>
       </c>
       <c r="I48" t="s">
+        <v>1056</v>
+      </c>
+      <c r="J48" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>261</v>
       </c>
       <c r="B49">
-        <v>4.7</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C49">
-        <v>331296</v>
-      </c>
-      <c r="D49" t="s">
+        <v>868833</v>
+      </c>
+      <c r="D49">
+        <v>1.5</v>
+      </c>
+      <c r="E49" t="s">
         <v>262</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>263</v>
-      </c>
-      <c r="F49" t="s">
-        <v>264</v>
       </c>
       <c r="G49">
         <v>1</v>
       </c>
       <c r="H49" t="s">
+        <v>264</v>
+      </c>
+      <c r="I49" t="s">
+        <v>1057</v>
+      </c>
+      <c r="J49" t="s">
         <v>265</v>
       </c>
-      <c r="I49" t="s">
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="B50">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C50">
+        <v>601061</v>
+      </c>
+      <c r="D50" t="s">
         <v>267</v>
-      </c>
-      <c r="B50">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="C50">
-        <v>868833</v>
-      </c>
-      <c r="D50">
-        <v>1.5</v>
       </c>
       <c r="E50" t="s">
         <v>268</v>
@@ -4892,18 +5586,21 @@
         <v>270</v>
       </c>
       <c r="I50" t="s">
+        <v>1058</v>
+      </c>
+      <c r="J50" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>272</v>
       </c>
       <c r="B51">
-        <v>4.4000000000000004</v>
+        <v>4.7</v>
       </c>
       <c r="C51">
-        <v>601061</v>
+        <v>769885</v>
       </c>
       <c r="D51" t="s">
         <v>273</v>
@@ -4921,79 +5618,88 @@
         <v>276</v>
       </c>
       <c r="I51" t="s">
+        <v>1059</v>
+      </c>
+      <c r="J51" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>278</v>
       </c>
       <c r="B52">
-        <v>4.7</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C52">
-        <v>769885</v>
+        <v>275853</v>
       </c>
       <c r="D52" t="s">
+        <v>256</v>
+      </c>
+      <c r="E52" t="s">
         <v>279</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>280</v>
-      </c>
-      <c r="F52" t="s">
-        <v>281</v>
       </c>
       <c r="G52">
         <v>1</v>
       </c>
       <c r="H52" t="s">
+        <v>281</v>
+      </c>
+      <c r="I52" t="s">
+        <v>1060</v>
+      </c>
+      <c r="J52" t="s">
         <v>282</v>
       </c>
-      <c r="I52" t="s">
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="B53">
+        <v>4.7</v>
+      </c>
+      <c r="C53">
+        <v>140042</v>
+      </c>
+      <c r="D53" t="s">
+        <v>245</v>
+      </c>
+      <c r="E53" t="s">
         <v>284</v>
       </c>
-      <c r="B53">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="C53">
-        <v>275853</v>
-      </c>
-      <c r="D53" t="s">
-        <v>262</v>
-      </c>
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>285</v>
-      </c>
-      <c r="F53" t="s">
-        <v>286</v>
       </c>
       <c r="G53">
         <v>1</v>
       </c>
       <c r="H53" t="s">
+        <v>286</v>
+      </c>
+      <c r="I53" t="s">
+        <v>1061</v>
+      </c>
+      <c r="J53" t="s">
         <v>287</v>
       </c>
-      <c r="I53" t="s">
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="B54">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C54">
+        <v>850483</v>
+      </c>
+      <c r="D54" t="s">
         <v>289</v>
-      </c>
-      <c r="B54">
-        <v>4.7</v>
-      </c>
-      <c r="C54">
-        <v>140042</v>
-      </c>
-      <c r="D54" t="s">
-        <v>251</v>
       </c>
       <c r="E54" t="s">
         <v>290</v>
@@ -5008,50 +5714,56 @@
         <v>292</v>
       </c>
       <c r="I54" t="s">
+        <v>1062</v>
+      </c>
+      <c r="J54" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>294</v>
       </c>
       <c r="B55">
-        <v>4.5999999999999996</v>
+        <v>4</v>
       </c>
       <c r="C55">
-        <v>850483</v>
+        <v>432515</v>
       </c>
       <c r="D55" t="s">
+        <v>239</v>
+      </c>
+      <c r="E55" t="s">
         <v>295</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>296</v>
-      </c>
-      <c r="F55" t="s">
-        <v>297</v>
       </c>
       <c r="G55">
         <v>1</v>
       </c>
       <c r="H55" t="s">
+        <v>297</v>
+      </c>
+      <c r="I55" t="s">
+        <v>1063</v>
+      </c>
+      <c r="J55" t="s">
         <v>298</v>
       </c>
-      <c r="I55" t="s">
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="B56">
+        <v>4.8</v>
+      </c>
+      <c r="C56">
+        <v>682423</v>
+      </c>
+      <c r="D56" t="s">
         <v>300</v>
-      </c>
-      <c r="B56">
-        <v>4</v>
-      </c>
-      <c r="C56">
-        <v>432515</v>
-      </c>
-      <c r="D56" t="s">
-        <v>245</v>
       </c>
       <c r="E56" t="s">
         <v>301</v>
@@ -5066,18 +5778,21 @@
         <v>303</v>
       </c>
       <c r="I56" t="s">
+        <v>1064</v>
+      </c>
+      <c r="J56" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>305</v>
       </c>
       <c r="B57">
-        <v>4.8</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C57">
-        <v>682423</v>
+        <v>424824</v>
       </c>
       <c r="D57" t="s">
         <v>306</v>
@@ -5095,18 +5810,21 @@
         <v>309</v>
       </c>
       <c r="I57" t="s">
+        <v>1065</v>
+      </c>
+      <c r="J57" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>311</v>
       </c>
       <c r="B58">
-        <v>4.4000000000000004</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C58">
-        <v>424824</v>
+        <v>375467</v>
       </c>
       <c r="D58" t="s">
         <v>312</v>
@@ -5124,18 +5842,21 @@
         <v>315</v>
       </c>
       <c r="I58" t="s">
+        <v>1066</v>
+      </c>
+      <c r="J58" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>317</v>
       </c>
       <c r="B59">
-        <v>4.5999999999999996</v>
+        <v>4.3</v>
       </c>
       <c r="C59">
-        <v>375467</v>
+        <v>414821</v>
       </c>
       <c r="D59" t="s">
         <v>318</v>
@@ -5153,137 +5874,152 @@
         <v>321</v>
       </c>
       <c r="I59" t="s">
+        <v>1067</v>
+      </c>
+      <c r="J59" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>323</v>
       </c>
       <c r="B60">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="C60">
-        <v>414821</v>
+        <v>496546</v>
       </c>
       <c r="D60" t="s">
+        <v>21</v>
+      </c>
+      <c r="E60" t="s">
         <v>324</v>
       </c>
-      <c r="E60" t="s">
+      <c r="F60" t="s">
         <v>325</v>
-      </c>
-      <c r="F60" t="s">
-        <v>326</v>
       </c>
       <c r="G60">
         <v>1</v>
       </c>
       <c r="H60" t="s">
+        <v>326</v>
+      </c>
+      <c r="I60" t="s">
+        <v>1068</v>
+      </c>
+      <c r="J60" t="s">
         <v>327</v>
       </c>
-      <c r="I60" t="s">
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="B61">
+        <v>4.5</v>
+      </c>
+      <c r="C61">
+        <v>770256</v>
+      </c>
+      <c r="D61" t="s">
+        <v>233</v>
+      </c>
+      <c r="E61" t="s">
         <v>329</v>
       </c>
-      <c r="B61">
-        <v>4.2</v>
-      </c>
-      <c r="C61">
-        <v>496546</v>
-      </c>
-      <c r="D61" t="s">
-        <v>21</v>
-      </c>
-      <c r="E61" t="s">
+      <c r="F61" t="s">
         <v>330</v>
-      </c>
-      <c r="F61" t="s">
-        <v>331</v>
       </c>
       <c r="G61">
         <v>1</v>
       </c>
       <c r="H61" t="s">
+        <v>331</v>
+      </c>
+      <c r="I61" t="s">
+        <v>1069</v>
+      </c>
+      <c r="J61" t="s">
         <v>332</v>
       </c>
-      <c r="I61" t="s">
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="B62">
+        <v>4.8</v>
+      </c>
+      <c r="C62">
+        <v>777046</v>
+      </c>
+      <c r="D62" t="s">
+        <v>147</v>
+      </c>
+      <c r="E62" t="s">
         <v>334</v>
       </c>
-      <c r="B62">
-        <v>4.5</v>
-      </c>
-      <c r="C62">
-        <v>770256</v>
-      </c>
-      <c r="D62" t="s">
-        <v>239</v>
-      </c>
-      <c r="E62" t="s">
+      <c r="F62" t="s">
         <v>335</v>
-      </c>
-      <c r="F62" t="s">
-        <v>336</v>
       </c>
       <c r="G62">
         <v>1</v>
       </c>
       <c r="H62" t="s">
+        <v>336</v>
+      </c>
+      <c r="I62" t="s">
+        <v>1070</v>
+      </c>
+      <c r="J62" t="s">
         <v>337</v>
       </c>
-      <c r="I62" t="s">
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>339</v>
-      </c>
       <c r="B63">
-        <v>4.8</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C63">
-        <v>777046</v>
+        <v>130835</v>
       </c>
       <c r="D63" t="s">
         <v>147</v>
       </c>
       <c r="E63" t="s">
+        <v>339</v>
+      </c>
+      <c r="F63" t="s">
         <v>340</v>
-      </c>
-      <c r="F63" t="s">
-        <v>341</v>
       </c>
       <c r="G63">
         <v>1</v>
       </c>
       <c r="H63" t="s">
+        <v>341</v>
+      </c>
+      <c r="I63" t="s">
+        <v>1071</v>
+      </c>
+      <c r="J63" t="s">
         <v>342</v>
       </c>
-      <c r="I63" t="s">
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="B64">
+        <v>4.7</v>
+      </c>
+      <c r="C64">
+        <v>831238</v>
+      </c>
+      <c r="D64" t="s">
         <v>344</v>
-      </c>
-      <c r="B64">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="C64">
-        <v>130835</v>
-      </c>
-      <c r="D64" t="s">
-        <v>147</v>
       </c>
       <c r="E64" t="s">
         <v>345</v>
@@ -5298,50 +6034,56 @@
         <v>347</v>
       </c>
       <c r="I64" t="s">
+        <v>1072</v>
+      </c>
+      <c r="J64" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>349</v>
       </c>
       <c r="B65">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="C65">
-        <v>831238</v>
+        <v>891167</v>
       </c>
       <c r="D65" t="s">
+        <v>125</v>
+      </c>
+      <c r="E65" t="s">
         <v>350</v>
       </c>
-      <c r="E65" t="s">
+      <c r="F65" t="s">
         <v>351</v>
-      </c>
-      <c r="F65" t="s">
-        <v>352</v>
       </c>
       <c r="G65">
         <v>1</v>
       </c>
       <c r="H65" t="s">
+        <v>352</v>
+      </c>
+      <c r="I65" t="s">
+        <v>1073</v>
+      </c>
+      <c r="J65" t="s">
         <v>353</v>
       </c>
-      <c r="I65" t="s">
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="B66">
+        <v>4.5</v>
+      </c>
+      <c r="C66">
+        <v>720081</v>
+      </c>
+      <c r="D66" t="s">
         <v>355</v>
-      </c>
-      <c r="B66">
-        <v>4.3</v>
-      </c>
-      <c r="C66">
-        <v>891167</v>
-      </c>
-      <c r="D66" t="s">
-        <v>125</v>
       </c>
       <c r="E66" t="s">
         <v>356</v>
@@ -5356,18 +6098,21 @@
         <v>358</v>
       </c>
       <c r="I66" t="s">
+        <v>1074</v>
+      </c>
+      <c r="J66" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>360</v>
       </c>
       <c r="B67">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="C67">
-        <v>720081</v>
+        <v>207024</v>
       </c>
       <c r="D67" t="s">
         <v>361</v>
@@ -5385,10 +6130,13 @@
         <v>364</v>
       </c>
       <c r="I67" t="s">
+        <v>1075</v>
+      </c>
+      <c r="J67" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>366</v>
       </c>
@@ -5396,7 +6144,7 @@
         <v>4.3</v>
       </c>
       <c r="C68">
-        <v>207024</v>
+        <v>299035</v>
       </c>
       <c r="D68" t="s">
         <v>367</v>
@@ -5414,18 +6162,21 @@
         <v>370</v>
       </c>
       <c r="I68" t="s">
+        <v>1076</v>
+      </c>
+      <c r="J68" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>372</v>
       </c>
       <c r="B69">
-        <v>4.3</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C69">
-        <v>299035</v>
+        <v>196733</v>
       </c>
       <c r="D69" t="s">
         <v>373</v>
@@ -5443,18 +6194,21 @@
         <v>376</v>
       </c>
       <c r="I69" t="s">
+        <v>1077</v>
+      </c>
+      <c r="J69" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>378</v>
       </c>
       <c r="B70">
-        <v>4.4000000000000004</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C70">
-        <v>196733</v>
+        <v>831890</v>
       </c>
       <c r="D70" t="s">
         <v>379</v>
@@ -5472,108 +6226,120 @@
         <v>382</v>
       </c>
       <c r="I70" t="s">
+        <v>1078</v>
+      </c>
+      <c r="J70" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>384</v>
       </c>
       <c r="B71">
-        <v>4.5999999999999996</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C71">
-        <v>831890</v>
+        <v>128087</v>
       </c>
       <c r="D71" t="s">
+        <v>125</v>
+      </c>
+      <c r="E71" t="s">
         <v>385</v>
       </c>
-      <c r="E71" t="s">
+      <c r="F71" t="s">
         <v>386</v>
-      </c>
-      <c r="F71" t="s">
-        <v>387</v>
       </c>
       <c r="G71">
         <v>1</v>
       </c>
       <c r="H71" t="s">
+        <v>387</v>
+      </c>
+      <c r="I71" t="s">
+        <v>1079</v>
+      </c>
+      <c r="J71" t="s">
         <v>388</v>
       </c>
-      <c r="I71" t="s">
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="B72">
+        <v>4.7</v>
+      </c>
+      <c r="C72">
+        <v>266340</v>
+      </c>
+      <c r="D72" t="s">
+        <v>147</v>
+      </c>
+      <c r="E72" t="s">
         <v>390</v>
       </c>
-      <c r="B72">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="C72">
-        <v>128087</v>
-      </c>
-      <c r="D72" t="s">
-        <v>125</v>
-      </c>
-      <c r="E72" t="s">
+      <c r="F72" t="s">
         <v>391</v>
-      </c>
-      <c r="F72" t="s">
-        <v>392</v>
       </c>
       <c r="G72">
         <v>1</v>
       </c>
       <c r="H72" t="s">
+        <v>392</v>
+      </c>
+      <c r="I72" t="s">
+        <v>1080</v>
+      </c>
+      <c r="J72" t="s">
         <v>393</v>
       </c>
-      <c r="I72" t="s">
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="B73">
+        <v>4</v>
+      </c>
+      <c r="C73">
+        <v>459627</v>
+      </c>
+      <c r="D73" t="s">
+        <v>125</v>
+      </c>
+      <c r="E73" t="s">
         <v>395</v>
       </c>
-      <c r="B73">
-        <v>4.7</v>
-      </c>
-      <c r="C73">
-        <v>266340</v>
-      </c>
-      <c r="D73" t="s">
-        <v>147</v>
-      </c>
-      <c r="E73" t="s">
+      <c r="F73" t="s">
         <v>396</v>
-      </c>
-      <c r="F73" t="s">
-        <v>397</v>
       </c>
       <c r="G73">
         <v>1</v>
       </c>
       <c r="H73" t="s">
+        <v>397</v>
+      </c>
+      <c r="I73" t="s">
+        <v>1081</v>
+      </c>
+      <c r="J73" t="s">
         <v>398</v>
       </c>
-      <c r="I73" t="s">
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="B74">
+        <v>4.5</v>
+      </c>
+      <c r="C74">
+        <v>653321</v>
+      </c>
+      <c r="D74" t="s">
         <v>400</v>
-      </c>
-      <c r="B74">
-        <v>4</v>
-      </c>
-      <c r="C74">
-        <v>459627</v>
-      </c>
-      <c r="D74" t="s">
-        <v>125</v>
       </c>
       <c r="E74" t="s">
         <v>401</v>
@@ -5588,50 +6354,56 @@
         <v>403</v>
       </c>
       <c r="I74" t="s">
+        <v>1082</v>
+      </c>
+      <c r="J74" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>405</v>
       </c>
       <c r="B75">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="C75">
-        <v>653321</v>
+        <v>805735</v>
       </c>
       <c r="D75" t="s">
+        <v>125</v>
+      </c>
+      <c r="E75" t="s">
         <v>406</v>
       </c>
-      <c r="E75" t="s">
+      <c r="F75" t="s">
         <v>407</v>
-      </c>
-      <c r="F75" t="s">
-        <v>408</v>
       </c>
       <c r="G75">
         <v>1</v>
       </c>
       <c r="H75" t="s">
+        <v>408</v>
+      </c>
+      <c r="I75" t="s">
+        <v>1083</v>
+      </c>
+      <c r="J75" t="s">
         <v>409</v>
       </c>
-      <c r="I75" t="s">
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+      <c r="B76">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C76">
+        <v>970705</v>
+      </c>
+      <c r="D76" t="s">
         <v>411</v>
-      </c>
-      <c r="B76">
-        <v>4</v>
-      </c>
-      <c r="C76">
-        <v>805735</v>
-      </c>
-      <c r="D76" t="s">
-        <v>125</v>
       </c>
       <c r="E76" t="s">
         <v>412</v>
@@ -5640,85 +6412,94 @@
         <v>413</v>
       </c>
       <c r="G76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76" t="s">
         <v>414</v>
       </c>
       <c r="I76" t="s">
+        <v>1084</v>
+      </c>
+      <c r="J76" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>416</v>
       </c>
       <c r="B77">
-        <v>4.5999999999999996</v>
+        <v>4.8</v>
       </c>
       <c r="C77">
-        <v>970705</v>
+        <v>697189</v>
       </c>
       <c r="D77" t="s">
+        <v>239</v>
+      </c>
+      <c r="E77" t="s">
         <v>417</v>
       </c>
-      <c r="E77" t="s">
+      <c r="F77" t="s">
         <v>418</v>
-      </c>
-      <c r="F77" t="s">
-        <v>419</v>
       </c>
       <c r="G77">
         <v>0</v>
       </c>
       <c r="H77" t="s">
+        <v>419</v>
+      </c>
+      <c r="I77" t="s">
+        <v>1085</v>
+      </c>
+      <c r="J77" t="s">
         <v>420</v>
       </c>
-      <c r="I77" t="s">
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="B78">
+        <v>4.7</v>
+      </c>
+      <c r="C78">
+        <v>711495</v>
+      </c>
+      <c r="D78" t="s">
+        <v>373</v>
+      </c>
+      <c r="E78" t="s">
         <v>422</v>
       </c>
-      <c r="B78">
-        <v>4.8</v>
-      </c>
-      <c r="C78">
-        <v>697189</v>
-      </c>
-      <c r="D78" t="s">
-        <v>245</v>
-      </c>
-      <c r="E78" t="s">
+      <c r="F78" t="s">
         <v>423</v>
-      </c>
-      <c r="F78" t="s">
-        <v>424</v>
       </c>
       <c r="G78">
         <v>0</v>
       </c>
       <c r="H78" t="s">
+        <v>424</v>
+      </c>
+      <c r="I78" t="s">
+        <v>1086</v>
+      </c>
+      <c r="J78" t="s">
         <v>425</v>
       </c>
-      <c r="I78" t="s">
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="B79">
+        <v>4.3</v>
+      </c>
+      <c r="C79">
+        <v>342528</v>
+      </c>
+      <c r="D79" t="s">
         <v>427</v>
-      </c>
-      <c r="B79">
-        <v>4.7</v>
-      </c>
-      <c r="C79">
-        <v>711495</v>
-      </c>
-      <c r="D79" t="s">
-        <v>379</v>
       </c>
       <c r="E79" t="s">
         <v>428</v>
@@ -5733,18 +6514,21 @@
         <v>430</v>
       </c>
       <c r="I79" t="s">
+        <v>1087</v>
+      </c>
+      <c r="J79" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>432</v>
       </c>
       <c r="B80">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="C80">
-        <v>342528</v>
+        <v>191771</v>
       </c>
       <c r="D80" t="s">
         <v>433</v>
@@ -5762,18 +6546,21 @@
         <v>436</v>
       </c>
       <c r="I80" t="s">
+        <v>1088</v>
+      </c>
+      <c r="J80" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>438</v>
       </c>
       <c r="B81">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="C81">
-        <v>191771</v>
+        <v>196623</v>
       </c>
       <c r="D81" t="s">
         <v>439</v>
@@ -5791,18 +6578,21 @@
         <v>442</v>
       </c>
       <c r="I81" t="s">
+        <v>1089</v>
+      </c>
+      <c r="J81" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>444</v>
       </c>
       <c r="B82">
-        <v>4.2</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C82">
-        <v>196623</v>
+        <v>331044</v>
       </c>
       <c r="D82" t="s">
         <v>445</v>
@@ -5820,18 +6610,21 @@
         <v>448</v>
       </c>
       <c r="I82" t="s">
+        <v>1090</v>
+      </c>
+      <c r="J82" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>450</v>
       </c>
       <c r="B83">
-        <v>4.4000000000000004</v>
+        <v>4.7</v>
       </c>
       <c r="C83">
-        <v>331044</v>
+        <v>229438</v>
       </c>
       <c r="D83" t="s">
         <v>451</v>
@@ -5849,50 +6642,56 @@
         <v>454</v>
       </c>
       <c r="I83" t="s">
+        <v>1091</v>
+      </c>
+      <c r="J83" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>456</v>
       </c>
       <c r="B84">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="C84">
-        <v>229438</v>
+        <v>152774</v>
       </c>
       <c r="D84" t="s">
+        <v>147</v>
+      </c>
+      <c r="E84" t="s">
         <v>457</v>
       </c>
-      <c r="E84" t="s">
+      <c r="F84" t="s">
         <v>458</v>
-      </c>
-      <c r="F84" t="s">
-        <v>459</v>
       </c>
       <c r="G84">
         <v>0</v>
       </c>
       <c r="H84" t="s">
+        <v>459</v>
+      </c>
+      <c r="I84" t="s">
+        <v>1092</v>
+      </c>
+      <c r="J84" t="s">
         <v>460</v>
       </c>
-      <c r="I84" t="s">
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+      <c r="B85">
+        <v>4.7</v>
+      </c>
+      <c r="C85">
+        <v>106188</v>
+      </c>
+      <c r="D85" t="s">
         <v>462</v>
-      </c>
-      <c r="B85">
-        <v>4.8</v>
-      </c>
-      <c r="C85">
-        <v>152774</v>
-      </c>
-      <c r="D85" t="s">
-        <v>147</v>
       </c>
       <c r="E85" t="s">
         <v>463</v>
@@ -5907,166 +6706,184 @@
         <v>465</v>
       </c>
       <c r="I85" t="s">
+        <v>1093</v>
+      </c>
+      <c r="J85" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>467</v>
       </c>
       <c r="B86">
-        <v>4.7</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C86">
-        <v>106188</v>
+        <v>776089</v>
       </c>
       <c r="D86" t="s">
+        <v>147</v>
+      </c>
+      <c r="E86" t="s">
         <v>468</v>
       </c>
-      <c r="E86" t="s">
+      <c r="F86" t="s">
         <v>469</v>
-      </c>
-      <c r="F86" t="s">
-        <v>470</v>
       </c>
       <c r="G86">
         <v>0</v>
       </c>
       <c r="H86" t="s">
+        <v>470</v>
+      </c>
+      <c r="I86" t="s">
+        <v>1094</v>
+      </c>
+      <c r="J86" t="s">
         <v>471</v>
       </c>
-      <c r="I86" t="s">
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+      <c r="B87">
+        <v>4.5</v>
+      </c>
+      <c r="C87">
+        <v>929604</v>
+      </c>
+      <c r="D87" t="s">
+        <v>439</v>
+      </c>
+      <c r="E87" t="s">
         <v>473</v>
       </c>
-      <c r="B87">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="C87">
-        <v>776089</v>
-      </c>
-      <c r="D87" t="s">
-        <v>147</v>
-      </c>
-      <c r="E87" t="s">
+      <c r="F87" t="s">
         <v>474</v>
-      </c>
-      <c r="F87" t="s">
-        <v>475</v>
       </c>
       <c r="G87">
         <v>0</v>
       </c>
       <c r="H87" t="s">
+        <v>475</v>
+      </c>
+      <c r="I87" t="s">
+        <v>1095</v>
+      </c>
+      <c r="J87" t="s">
         <v>476</v>
       </c>
-      <c r="I87" t="s">
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+      <c r="B88">
+        <v>4.7</v>
+      </c>
+      <c r="C88">
+        <v>739809</v>
+      </c>
+      <c r="D88" t="s">
+        <v>147</v>
+      </c>
+      <c r="E88" t="s">
         <v>478</v>
       </c>
-      <c r="B88">
-        <v>4.5</v>
-      </c>
-      <c r="C88">
-        <v>929604</v>
-      </c>
-      <c r="D88" t="s">
-        <v>445</v>
-      </c>
-      <c r="E88" t="s">
+      <c r="F88" t="s">
         <v>479</v>
-      </c>
-      <c r="F88" t="s">
-        <v>480</v>
       </c>
       <c r="G88">
         <v>0</v>
       </c>
       <c r="H88" t="s">
+        <v>480</v>
+      </c>
+      <c r="I88" t="s">
+        <v>1096</v>
+      </c>
+      <c r="J88" t="s">
         <v>481</v>
       </c>
-      <c r="I88" t="s">
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>483</v>
-      </c>
       <c r="B89">
-        <v>4.7</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C89">
-        <v>739809</v>
+        <v>360880</v>
       </c>
       <c r="D89" t="s">
         <v>147</v>
       </c>
       <c r="E89" t="s">
+        <v>483</v>
+      </c>
+      <c r="F89" t="s">
         <v>484</v>
-      </c>
-      <c r="F89" t="s">
-        <v>485</v>
       </c>
       <c r="G89">
         <v>0</v>
       </c>
       <c r="H89" t="s">
+        <v>485</v>
+      </c>
+      <c r="I89" t="s">
+        <v>1097</v>
+      </c>
+      <c r="J89" t="s">
         <v>486</v>
       </c>
-      <c r="I89" t="s">
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+      <c r="B90">
+        <v>4.7</v>
+      </c>
+      <c r="C90">
+        <v>152392</v>
+      </c>
+      <c r="D90" t="s">
+        <v>245</v>
+      </c>
+      <c r="E90" t="s">
         <v>488</v>
       </c>
-      <c r="B90">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="C90">
-        <v>360880</v>
-      </c>
-      <c r="D90" t="s">
-        <v>147</v>
-      </c>
-      <c r="E90" t="s">
+      <c r="F90" t="s">
         <v>489</v>
-      </c>
-      <c r="F90" t="s">
-        <v>490</v>
       </c>
       <c r="G90">
         <v>0</v>
       </c>
       <c r="H90" t="s">
+        <v>490</v>
+      </c>
+      <c r="I90" t="s">
+        <v>1098</v>
+      </c>
+      <c r="J90" t="s">
         <v>491</v>
       </c>
-      <c r="I90" t="s">
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>492</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>493</v>
       </c>
       <c r="B91">
         <v>4.7</v>
       </c>
       <c r="C91">
-        <v>152392</v>
+        <v>844639</v>
       </c>
       <c r="D91" t="s">
-        <v>251</v>
+        <v>493</v>
       </c>
       <c r="E91" t="s">
         <v>494</v>
@@ -6081,50 +6898,56 @@
         <v>496</v>
       </c>
       <c r="I91" t="s">
+        <v>1099</v>
+      </c>
+      <c r="J91" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>498</v>
       </c>
       <c r="B92">
-        <v>4.7</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C92">
-        <v>844639</v>
+        <v>925873</v>
       </c>
       <c r="D92" t="s">
+        <v>245</v>
+      </c>
+      <c r="E92" t="s">
         <v>499</v>
       </c>
-      <c r="E92" t="s">
+      <c r="F92" t="s">
         <v>500</v>
-      </c>
-      <c r="F92" t="s">
-        <v>501</v>
       </c>
       <c r="G92">
         <v>0</v>
       </c>
       <c r="H92" t="s">
+        <v>501</v>
+      </c>
+      <c r="I92" t="s">
+        <v>1100</v>
+      </c>
+      <c r="J92" t="s">
         <v>502</v>
       </c>
-      <c r="I92" t="s">
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+      <c r="B93">
+        <v>4.7</v>
+      </c>
+      <c r="C93">
+        <v>676421</v>
+      </c>
+      <c r="D93" t="s">
         <v>504</v>
-      </c>
-      <c r="B93">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="C93">
-        <v>925873</v>
-      </c>
-      <c r="D93" t="s">
-        <v>251</v>
       </c>
       <c r="E93" t="s">
         <v>505</v>
@@ -6139,253 +6962,280 @@
         <v>507</v>
       </c>
       <c r="I93" t="s">
+        <v>1101</v>
+      </c>
+      <c r="J93" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>509</v>
       </c>
       <c r="B94">
-        <v>4.7</v>
+        <v>4</v>
       </c>
       <c r="C94">
-        <v>676421</v>
+        <v>545412</v>
       </c>
       <c r="D94" t="s">
+        <v>147</v>
+      </c>
+      <c r="E94" t="s">
         <v>510</v>
       </c>
-      <c r="E94" t="s">
+      <c r="F94" t="s">
         <v>511</v>
-      </c>
-      <c r="F94" t="s">
-        <v>512</v>
       </c>
       <c r="G94">
         <v>0</v>
       </c>
       <c r="H94" t="s">
+        <v>512</v>
+      </c>
+      <c r="I94" t="s">
+        <v>1102</v>
+      </c>
+      <c r="J94" t="s">
         <v>513</v>
       </c>
-      <c r="I94" t="s">
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+      <c r="B95">
+        <v>4.5</v>
+      </c>
+      <c r="C95">
+        <v>289564</v>
+      </c>
+      <c r="D95" t="s">
+        <v>27</v>
+      </c>
+      <c r="E95" t="s">
         <v>515</v>
       </c>
-      <c r="B95">
-        <v>4</v>
-      </c>
-      <c r="C95">
-        <v>545412</v>
-      </c>
-      <c r="D95" t="s">
-        <v>147</v>
-      </c>
-      <c r="E95" t="s">
+      <c r="F95" t="s">
         <v>516</v>
-      </c>
-      <c r="F95" t="s">
-        <v>517</v>
       </c>
       <c r="G95">
         <v>0</v>
       </c>
       <c r="H95" t="s">
+        <v>517</v>
+      </c>
+      <c r="I95" t="s">
+        <v>1103</v>
+      </c>
+      <c r="J95" t="s">
         <v>518</v>
       </c>
-      <c r="I95" t="s">
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+      <c r="B96">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C96">
+        <v>129727</v>
+      </c>
+      <c r="D96" t="s">
+        <v>306</v>
+      </c>
+      <c r="E96" t="s">
         <v>520</v>
       </c>
-      <c r="B96">
-        <v>4.5</v>
-      </c>
-      <c r="C96">
-        <v>289564</v>
-      </c>
-      <c r="D96" t="s">
-        <v>27</v>
-      </c>
-      <c r="E96" t="s">
+      <c r="F96" t="s">
         <v>521</v>
-      </c>
-      <c r="F96" t="s">
-        <v>522</v>
       </c>
       <c r="G96">
         <v>0</v>
       </c>
       <c r="H96" t="s">
+        <v>522</v>
+      </c>
+      <c r="I96" t="s">
+        <v>1104</v>
+      </c>
+      <c r="J96" t="s">
         <v>523</v>
       </c>
-      <c r="I96" t="s">
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
         <v>524</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>525</v>
       </c>
       <c r="B97">
         <v>4.5999999999999996</v>
       </c>
       <c r="C97">
-        <v>129727</v>
+        <v>723599</v>
       </c>
       <c r="D97" t="s">
-        <v>312</v>
+        <v>493</v>
       </c>
       <c r="E97" t="s">
+        <v>525</v>
+      </c>
+      <c r="F97" t="s">
         <v>526</v>
-      </c>
-      <c r="F97" t="s">
-        <v>527</v>
       </c>
       <c r="G97">
         <v>0</v>
       </c>
       <c r="H97" t="s">
+        <v>527</v>
+      </c>
+      <c r="I97" t="s">
+        <v>1105</v>
+      </c>
+      <c r="J97" t="s">
         <v>528</v>
       </c>
-      <c r="I97" t="s">
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+      <c r="B98">
+        <v>4.5</v>
+      </c>
+      <c r="C98">
+        <v>528752</v>
+      </c>
+      <c r="D98" t="s">
+        <v>306</v>
+      </c>
+      <c r="E98" t="s">
         <v>530</v>
       </c>
-      <c r="B98">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="C98">
-        <v>723599</v>
-      </c>
-      <c r="D98" t="s">
-        <v>499</v>
-      </c>
-      <c r="E98" t="s">
+      <c r="F98" t="s">
         <v>531</v>
-      </c>
-      <c r="F98" t="s">
-        <v>532</v>
       </c>
       <c r="G98">
         <v>0</v>
       </c>
       <c r="H98" t="s">
+        <v>532</v>
+      </c>
+      <c r="I98" t="s">
+        <v>1106</v>
+      </c>
+      <c r="J98" t="s">
         <v>533</v>
       </c>
-      <c r="I98" t="s">
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+      <c r="B99">
+        <v>4.7</v>
+      </c>
+      <c r="C99">
+        <v>820574</v>
+      </c>
+      <c r="D99" t="s">
+        <v>373</v>
+      </c>
+      <c r="E99" t="s">
         <v>535</v>
       </c>
-      <c r="B99">
-        <v>4.5</v>
-      </c>
-      <c r="C99">
-        <v>528752</v>
-      </c>
-      <c r="D99" t="s">
-        <v>312</v>
-      </c>
-      <c r="E99" t="s">
+      <c r="F99" t="s">
         <v>536</v>
-      </c>
-      <c r="F99" t="s">
-        <v>537</v>
       </c>
       <c r="G99">
         <v>0</v>
       </c>
       <c r="H99" t="s">
+        <v>537</v>
+      </c>
+      <c r="I99" t="s">
+        <v>1107</v>
+      </c>
+      <c r="J99" t="s">
         <v>538</v>
       </c>
-      <c r="I99" t="s">
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
         <v>539</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>540</v>
       </c>
       <c r="B100">
         <v>4.7</v>
       </c>
       <c r="C100">
-        <v>820574</v>
+        <v>265387</v>
       </c>
       <c r="D100" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="E100" t="s">
+        <v>540</v>
+      </c>
+      <c r="F100" t="s">
         <v>541</v>
-      </c>
-      <c r="F100" t="s">
-        <v>542</v>
       </c>
       <c r="G100">
         <v>0</v>
       </c>
       <c r="H100" t="s">
+        <v>542</v>
+      </c>
+      <c r="I100" t="s">
+        <v>1108</v>
+      </c>
+      <c r="J100" t="s">
         <v>543</v>
       </c>
-      <c r="I100" t="s">
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
         <v>544</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>545</v>
       </c>
       <c r="B101">
         <v>4.7</v>
       </c>
       <c r="C101">
-        <v>265387</v>
+        <v>958609</v>
       </c>
       <c r="D101" t="s">
-        <v>379</v>
+        <v>427</v>
       </c>
       <c r="E101" t="s">
+        <v>545</v>
+      </c>
+      <c r="F101" t="s">
         <v>546</v>
-      </c>
-      <c r="F101" t="s">
-        <v>547</v>
       </c>
       <c r="G101">
         <v>0</v>
       </c>
       <c r="H101" t="s">
+        <v>547</v>
+      </c>
+      <c r="I101" t="s">
+        <v>1109</v>
+      </c>
+      <c r="J101" t="s">
         <v>548</v>
       </c>
-      <c r="I101" t="s">
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+      <c r="B102">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C102">
+        <v>770170</v>
+      </c>
+      <c r="D102" t="s">
         <v>550</v>
-      </c>
-      <c r="B102">
-        <v>4.7</v>
-      </c>
-      <c r="C102">
-        <v>958609</v>
-      </c>
-      <c r="D102" t="s">
-        <v>433</v>
       </c>
       <c r="E102" t="s">
         <v>551</v>
@@ -6400,10 +7250,13 @@
         <v>553</v>
       </c>
       <c r="I102" t="s">
+        <v>1110</v>
+      </c>
+      <c r="J102" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>555</v>
       </c>
@@ -6411,7 +7264,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="C103">
-        <v>770170</v>
+        <v>615414</v>
       </c>
       <c r="D103" t="s">
         <v>556</v>
@@ -6429,10 +7282,13 @@
         <v>559</v>
       </c>
       <c r="I103" t="s">
+        <v>1111</v>
+      </c>
+      <c r="J103" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>561</v>
       </c>
@@ -6440,329 +7296,362 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="C104">
-        <v>615414</v>
+        <v>615371</v>
       </c>
       <c r="D104" t="s">
+        <v>504</v>
+      </c>
+      <c r="E104" t="s">
         <v>562</v>
       </c>
-      <c r="E104" t="s">
+      <c r="F104" t="s">
         <v>563</v>
-      </c>
-      <c r="F104" t="s">
-        <v>564</v>
       </c>
       <c r="G104">
         <v>0</v>
       </c>
       <c r="H104" t="s">
+        <v>564</v>
+      </c>
+      <c r="I104" t="s">
+        <v>1112</v>
+      </c>
+      <c r="J104" t="s">
         <v>565</v>
       </c>
-      <c r="I104" t="s">
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+      <c r="B105">
+        <v>4.5</v>
+      </c>
+      <c r="C105">
+        <v>452231</v>
+      </c>
+      <c r="D105" t="s">
+        <v>239</v>
+      </c>
+      <c r="E105" t="s">
         <v>567</v>
       </c>
-      <c r="B105">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="C105">
-        <v>615371</v>
-      </c>
-      <c r="D105" t="s">
-        <v>510</v>
-      </c>
-      <c r="E105" t="s">
+      <c r="F105" t="s">
         <v>568</v>
-      </c>
-      <c r="F105" t="s">
-        <v>569</v>
       </c>
       <c r="G105">
         <v>0</v>
       </c>
       <c r="H105" t="s">
+        <v>569</v>
+      </c>
+      <c r="I105" t="s">
+        <v>1113</v>
+      </c>
+      <c r="J105" t="s">
         <v>570</v>
       </c>
-      <c r="I105" t="s">
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+      <c r="B106">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C106">
+        <v>188547</v>
+      </c>
+      <c r="D106" t="s">
+        <v>373</v>
+      </c>
+      <c r="E106" t="s">
         <v>572</v>
       </c>
-      <c r="B106">
-        <v>4.5</v>
-      </c>
-      <c r="C106">
-        <v>452231</v>
-      </c>
-      <c r="D106" t="s">
-        <v>245</v>
-      </c>
-      <c r="E106" t="s">
+      <c r="F106" t="s">
         <v>573</v>
-      </c>
-      <c r="F106" t="s">
-        <v>574</v>
       </c>
       <c r="G106">
         <v>0</v>
       </c>
       <c r="H106" t="s">
+        <v>574</v>
+      </c>
+      <c r="I106" t="s">
+        <v>1114</v>
+      </c>
+      <c r="J106" t="s">
         <v>575</v>
       </c>
-      <c r="I106" t="s">
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+      <c r="B107">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C107">
+        <v>213420</v>
+      </c>
+      <c r="D107" t="s">
+        <v>373</v>
+      </c>
+      <c r="E107" t="s">
         <v>577</v>
       </c>
-      <c r="B107">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="C107">
-        <v>188547</v>
-      </c>
-      <c r="D107" t="s">
-        <v>379</v>
-      </c>
-      <c r="E107" t="s">
+      <c r="F107" t="s">
         <v>578</v>
-      </c>
-      <c r="F107" t="s">
-        <v>579</v>
       </c>
       <c r="G107">
         <v>0</v>
       </c>
       <c r="H107" t="s">
+        <v>579</v>
+      </c>
+      <c r="I107" t="s">
+        <v>1115</v>
+      </c>
+      <c r="J107" t="s">
         <v>580</v>
       </c>
-      <c r="I107" t="s">
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+      <c r="B108">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C108">
+        <v>335098</v>
+      </c>
+      <c r="D108" t="s">
+        <v>373</v>
+      </c>
+      <c r="E108" t="s">
         <v>582</v>
       </c>
-      <c r="B108">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="C108">
-        <v>213420</v>
-      </c>
-      <c r="D108" t="s">
-        <v>379</v>
-      </c>
-      <c r="E108" t="s">
+      <c r="F108" t="s">
         <v>583</v>
-      </c>
-      <c r="F108" t="s">
-        <v>584</v>
       </c>
       <c r="G108">
         <v>0</v>
       </c>
       <c r="H108" t="s">
+        <v>584</v>
+      </c>
+      <c r="I108" t="s">
+        <v>1116</v>
+      </c>
+      <c r="J108" t="s">
         <v>585</v>
       </c>
-      <c r="I108" t="s">
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+      <c r="B109">
+        <v>4.7</v>
+      </c>
+      <c r="C109">
+        <v>572919</v>
+      </c>
+      <c r="D109" t="s">
+        <v>411</v>
+      </c>
+      <c r="E109" t="s">
         <v>587</v>
       </c>
-      <c r="B109">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="C109">
-        <v>335098</v>
-      </c>
-      <c r="D109" t="s">
-        <v>379</v>
-      </c>
-      <c r="E109" t="s">
+      <c r="F109" t="s">
         <v>588</v>
-      </c>
-      <c r="F109" t="s">
-        <v>589</v>
       </c>
       <c r="G109">
         <v>0</v>
       </c>
       <c r="H109" t="s">
+        <v>589</v>
+      </c>
+      <c r="I109" t="s">
+        <v>1117</v>
+      </c>
+      <c r="J109" t="s">
         <v>590</v>
       </c>
-      <c r="I109" t="s">
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+      <c r="B110">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C110">
+        <v>806175</v>
+      </c>
+      <c r="D110" t="s">
+        <v>400</v>
+      </c>
+      <c r="E110" t="s">
         <v>592</v>
       </c>
-      <c r="B110">
-        <v>4.7</v>
-      </c>
-      <c r="C110">
-        <v>572919</v>
-      </c>
-      <c r="D110" t="s">
-        <v>417</v>
-      </c>
-      <c r="E110" t="s">
+      <c r="F110" t="s">
         <v>593</v>
-      </c>
-      <c r="F110" t="s">
-        <v>594</v>
       </c>
       <c r="G110">
         <v>0</v>
       </c>
       <c r="H110" t="s">
+        <v>594</v>
+      </c>
+      <c r="I110" t="s">
+        <v>1118</v>
+      </c>
+      <c r="J110" t="s">
         <v>595</v>
       </c>
-      <c r="I110" t="s">
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+      <c r="B111">
+        <v>4.7</v>
+      </c>
+      <c r="C111">
+        <v>859308</v>
+      </c>
+      <c r="D111" t="s">
+        <v>245</v>
+      </c>
+      <c r="E111" t="s">
         <v>597</v>
       </c>
-      <c r="B111">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="C111">
-        <v>806175</v>
-      </c>
-      <c r="D111" t="s">
-        <v>406</v>
-      </c>
-      <c r="E111" t="s">
+      <c r="F111" t="s">
         <v>598</v>
-      </c>
-      <c r="F111" t="s">
-        <v>599</v>
       </c>
       <c r="G111">
         <v>0</v>
       </c>
       <c r="H111" t="s">
+        <v>599</v>
+      </c>
+      <c r="I111" t="s">
+        <v>1119</v>
+      </c>
+      <c r="J111" t="s">
         <v>600</v>
       </c>
-      <c r="I111" t="s">
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+      <c r="B112">
+        <v>4.8</v>
+      </c>
+      <c r="C112">
+        <v>260289</v>
+      </c>
+      <c r="D112" t="s">
+        <v>147</v>
+      </c>
+      <c r="E112" t="s">
         <v>602</v>
       </c>
-      <c r="B112">
-        <v>4.7</v>
-      </c>
-      <c r="C112">
-        <v>859308</v>
-      </c>
-      <c r="D112" t="s">
-        <v>251</v>
-      </c>
-      <c r="E112" t="s">
+      <c r="F112" t="s">
         <v>603</v>
-      </c>
-      <c r="F112" t="s">
-        <v>604</v>
       </c>
       <c r="G112">
         <v>0</v>
       </c>
       <c r="H112" t="s">
+        <v>604</v>
+      </c>
+      <c r="I112" t="s">
+        <v>1120</v>
+      </c>
+      <c r="J112" t="s">
         <v>605</v>
       </c>
-      <c r="I112" t="s">
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>607</v>
-      </c>
       <c r="B113">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="C113">
-        <v>260289</v>
+        <v>672514</v>
       </c>
       <c r="D113" t="s">
         <v>147</v>
       </c>
       <c r="E113" t="s">
+        <v>607</v>
+      </c>
+      <c r="F113" t="s">
         <v>608</v>
-      </c>
-      <c r="F113" t="s">
-        <v>609</v>
       </c>
       <c r="G113">
         <v>0</v>
       </c>
       <c r="H113" t="s">
+        <v>609</v>
+      </c>
+      <c r="I113" t="s">
+        <v>1121</v>
+      </c>
+      <c r="J113" t="s">
         <v>610</v>
       </c>
-      <c r="I113" t="s">
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+      <c r="B114">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C114">
+        <v>228552</v>
+      </c>
+      <c r="D114" t="s">
+        <v>439</v>
+      </c>
+      <c r="E114" t="s">
         <v>612</v>
       </c>
-      <c r="B114">
-        <v>4.2</v>
-      </c>
-      <c r="C114">
-        <v>672514</v>
-      </c>
-      <c r="D114" t="s">
-        <v>147</v>
-      </c>
-      <c r="E114" t="s">
+      <c r="F114" t="s">
         <v>613</v>
-      </c>
-      <c r="F114" t="s">
-        <v>614</v>
       </c>
       <c r="G114">
         <v>0</v>
       </c>
       <c r="H114" t="s">
+        <v>614</v>
+      </c>
+      <c r="I114" t="s">
+        <v>1122</v>
+      </c>
+      <c r="J114" t="s">
         <v>615</v>
       </c>
-      <c r="I114" t="s">
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+      <c r="B115">
+        <v>4.2</v>
+      </c>
+      <c r="C115">
+        <v>132006</v>
+      </c>
+      <c r="D115" t="s">
         <v>617</v>
-      </c>
-      <c r="B115">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="C115">
-        <v>228552</v>
-      </c>
-      <c r="D115" t="s">
-        <v>445</v>
       </c>
       <c r="E115" t="s">
         <v>618</v>
@@ -6777,18 +7666,21 @@
         <v>620</v>
       </c>
       <c r="I115" t="s">
+        <v>1123</v>
+      </c>
+      <c r="J115" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>622</v>
       </c>
       <c r="B116">
-        <v>4.2</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C116">
-        <v>132006</v>
+        <v>213192</v>
       </c>
       <c r="D116" t="s">
         <v>623</v>
@@ -6806,10 +7698,13 @@
         <v>626</v>
       </c>
       <c r="I116" t="s">
+        <v>1124</v>
+      </c>
+      <c r="J116" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>628</v>
       </c>
@@ -6817,126 +7712,138 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="C117">
-        <v>213192</v>
+        <v>723399</v>
       </c>
       <c r="D117" t="s">
+        <v>147</v>
+      </c>
+      <c r="E117" t="s">
         <v>629</v>
       </c>
-      <c r="E117" t="s">
+      <c r="F117" t="s">
         <v>630</v>
-      </c>
-      <c r="F117" t="s">
-        <v>631</v>
       </c>
       <c r="G117">
         <v>0</v>
       </c>
       <c r="H117" t="s">
+        <v>631</v>
+      </c>
+      <c r="I117" t="s">
+        <v>1125</v>
+      </c>
+      <c r="J117" t="s">
         <v>632</v>
       </c>
-      <c r="I117" t="s">
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+      <c r="B118">
+        <v>4.7</v>
+      </c>
+      <c r="C118">
+        <v>750637</v>
+      </c>
+      <c r="D118" t="s">
+        <v>462</v>
+      </c>
+      <c r="E118" t="s">
         <v>634</v>
       </c>
-      <c r="B118">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="C118">
-        <v>723399</v>
-      </c>
-      <c r="D118" t="s">
-        <v>147</v>
-      </c>
-      <c r="E118" t="s">
+      <c r="F118" t="s">
         <v>635</v>
-      </c>
-      <c r="F118" t="s">
-        <v>636</v>
       </c>
       <c r="G118">
         <v>0</v>
       </c>
       <c r="H118" t="s">
+        <v>636</v>
+      </c>
+      <c r="I118" t="s">
+        <v>1126</v>
+      </c>
+      <c r="J118" t="s">
         <v>637</v>
       </c>
-      <c r="I118" t="s">
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
         <v>638</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>639</v>
       </c>
       <c r="B119">
         <v>4.7</v>
       </c>
       <c r="C119">
-        <v>750637</v>
+        <v>221021</v>
       </c>
       <c r="D119" t="s">
-        <v>468</v>
+        <v>147</v>
       </c>
       <c r="E119" t="s">
+        <v>639</v>
+      </c>
+      <c r="F119" t="s">
         <v>640</v>
-      </c>
-      <c r="F119" t="s">
-        <v>641</v>
       </c>
       <c r="G119">
         <v>0</v>
       </c>
       <c r="H119" t="s">
+        <v>641</v>
+      </c>
+      <c r="I119" t="s">
+        <v>1127</v>
+      </c>
+      <c r="J119" t="s">
         <v>642</v>
       </c>
-      <c r="I119" t="s">
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>644</v>
-      </c>
       <c r="B120">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="C120">
-        <v>221021</v>
+        <v>691699</v>
       </c>
       <c r="D120" t="s">
         <v>147</v>
       </c>
       <c r="E120" t="s">
+        <v>644</v>
+      </c>
+      <c r="F120" t="s">
         <v>645</v>
-      </c>
-      <c r="F120" t="s">
-        <v>646</v>
       </c>
       <c r="G120">
         <v>0</v>
       </c>
       <c r="H120" t="s">
+        <v>646</v>
+      </c>
+      <c r="I120" t="s">
+        <v>1128</v>
+      </c>
+      <c r="J120" t="s">
         <v>647</v>
       </c>
-      <c r="I120" t="s">
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+      <c r="B121">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C121">
+        <v>112832</v>
+      </c>
+      <c r="D121" t="s">
         <v>649</v>
-      </c>
-      <c r="B121">
-        <v>4.5</v>
-      </c>
-      <c r="C121">
-        <v>691699</v>
-      </c>
-      <c r="D121" t="s">
-        <v>147</v>
       </c>
       <c r="E121" t="s">
         <v>650</v>
@@ -6951,224 +7858,248 @@
         <v>652</v>
       </c>
       <c r="I121" t="s">
+        <v>1129</v>
+      </c>
+      <c r="J121" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>654</v>
       </c>
       <c r="B122">
-        <v>4.4000000000000004</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C122">
-        <v>112832</v>
+        <v>879950</v>
       </c>
       <c r="D122" t="s">
+        <v>147</v>
+      </c>
+      <c r="E122" t="s">
         <v>655</v>
       </c>
-      <c r="E122" t="s">
+      <c r="F122" t="s">
         <v>656</v>
-      </c>
-      <c r="F122" t="s">
-        <v>657</v>
       </c>
       <c r="G122">
         <v>0</v>
       </c>
       <c r="H122" t="s">
+        <v>657</v>
+      </c>
+      <c r="I122" t="s">
+        <v>1130</v>
+      </c>
+      <c r="J122" t="s">
         <v>658</v>
       </c>
-      <c r="I122" t="s">
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
         <v>659</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>660</v>
       </c>
       <c r="B123">
         <v>4.5999999999999996</v>
       </c>
       <c r="C123">
-        <v>879950</v>
+        <v>625673</v>
       </c>
       <c r="D123" t="s">
-        <v>147</v>
+        <v>462</v>
       </c>
       <c r="E123" t="s">
+        <v>660</v>
+      </c>
+      <c r="F123" t="s">
         <v>661</v>
-      </c>
-      <c r="F123" t="s">
-        <v>662</v>
       </c>
       <c r="G123">
         <v>0</v>
       </c>
       <c r="H123" t="s">
+        <v>662</v>
+      </c>
+      <c r="I123" t="s">
+        <v>1131</v>
+      </c>
+      <c r="J123" t="s">
         <v>663</v>
       </c>
-      <c r="I123" t="s">
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+      <c r="B124">
+        <v>4.8</v>
+      </c>
+      <c r="C124">
+        <v>489599</v>
+      </c>
+      <c r="D124" t="s">
+        <v>147</v>
+      </c>
+      <c r="E124" t="s">
         <v>665</v>
       </c>
-      <c r="B124">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="C124">
-        <v>625673</v>
-      </c>
-      <c r="D124" t="s">
-        <v>468</v>
-      </c>
-      <c r="E124" t="s">
+      <c r="F124" t="s">
         <v>666</v>
-      </c>
-      <c r="F124" t="s">
-        <v>667</v>
       </c>
       <c r="G124">
         <v>0</v>
       </c>
       <c r="H124" t="s">
+        <v>667</v>
+      </c>
+      <c r="I124" t="s">
+        <v>1132</v>
+      </c>
+      <c r="J124" t="s">
         <v>668</v>
       </c>
-      <c r="I124" t="s">
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>670</v>
-      </c>
       <c r="B125">
-        <v>4.8</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C125">
-        <v>489599</v>
+        <v>631691</v>
       </c>
       <c r="D125" t="s">
         <v>147</v>
       </c>
       <c r="E125" t="s">
+        <v>670</v>
+      </c>
+      <c r="F125" t="s">
         <v>671</v>
-      </c>
-      <c r="F125" t="s">
-        <v>672</v>
       </c>
       <c r="G125">
         <v>0</v>
       </c>
       <c r="H125" t="s">
+        <v>672</v>
+      </c>
+      <c r="I125" t="s">
+        <v>1133</v>
+      </c>
+      <c r="J125" t="s">
         <v>673</v>
       </c>
-      <c r="I125" t="s">
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
         <v>674</v>
       </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>675</v>
-      </c>
       <c r="B126">
-        <v>4.5999999999999996</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C126">
-        <v>631691</v>
+        <v>204226</v>
       </c>
       <c r="D126" t="s">
         <v>147</v>
       </c>
       <c r="E126" t="s">
+        <v>675</v>
+      </c>
+      <c r="F126" t="s">
         <v>676</v>
       </c>
-      <c r="F126" t="s">
+      <c r="G126">
+        <v>3</v>
+      </c>
+      <c r="H126" t="s">
         <v>677</v>
       </c>
-      <c r="G126">
-        <v>0</v>
-      </c>
-      <c r="H126" t="s">
+      <c r="I126" t="s">
+        <v>1134</v>
+      </c>
+      <c r="J126" t="s">
         <v>678</v>
       </c>
-      <c r="I126" t="s">
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
+      <c r="B127">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C127">
+        <v>824345</v>
+      </c>
+      <c r="D127" t="s">
+        <v>373</v>
+      </c>
+      <c r="E127" t="s">
         <v>680</v>
       </c>
-      <c r="B127">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="C127">
-        <v>204226</v>
-      </c>
-      <c r="D127" t="s">
-        <v>147</v>
-      </c>
-      <c r="E127" t="s">
+      <c r="F127" t="s">
         <v>681</v>
-      </c>
-      <c r="F127" t="s">
-        <v>682</v>
       </c>
       <c r="G127">
         <v>3</v>
       </c>
       <c r="H127" t="s">
+        <v>682</v>
+      </c>
+      <c r="I127" t="s">
+        <v>1135</v>
+      </c>
+      <c r="J127" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
         <v>683</v>
       </c>
-      <c r="I127" t="s">
+      <c r="B128">
+        <v>4.8</v>
+      </c>
+      <c r="C128">
+        <v>715835</v>
+      </c>
+      <c r="D128" t="s">
+        <v>147</v>
+      </c>
+      <c r="E128" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
+      <c r="F128" t="s">
         <v>685</v>
-      </c>
-      <c r="B128">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="C128">
-        <v>824345</v>
-      </c>
-      <c r="D128" t="s">
-        <v>379</v>
-      </c>
-      <c r="E128" t="s">
-        <v>686</v>
-      </c>
-      <c r="F128" t="s">
-        <v>687</v>
       </c>
       <c r="G128">
         <v>3</v>
       </c>
       <c r="H128" t="s">
+        <v>686</v>
+      </c>
+      <c r="I128" t="s">
+        <v>1136</v>
+      </c>
+      <c r="J128" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
         <v>688</v>
       </c>
-      <c r="I128" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
+      <c r="B129">
+        <v>4.3</v>
+      </c>
+      <c r="C129">
+        <v>957964</v>
+      </c>
+      <c r="D129" t="s">
         <v>689</v>
-      </c>
-      <c r="B129">
-        <v>4.8</v>
-      </c>
-      <c r="C129">
-        <v>715835</v>
-      </c>
-      <c r="D129" t="s">
-        <v>147</v>
       </c>
       <c r="E129" t="s">
         <v>690</v>
@@ -7183,79 +8114,88 @@
         <v>692</v>
       </c>
       <c r="I129" t="s">
+        <v>1137</v>
+      </c>
+      <c r="J129" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>694</v>
       </c>
       <c r="B130">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="C130">
-        <v>957964</v>
+        <v>450480</v>
       </c>
       <c r="D130" t="s">
+        <v>147</v>
+      </c>
+      <c r="E130" t="s">
         <v>695</v>
       </c>
-      <c r="E130" t="s">
+      <c r="F130" t="s">
         <v>696</v>
-      </c>
-      <c r="F130" t="s">
-        <v>697</v>
       </c>
       <c r="G130">
         <v>3</v>
       </c>
       <c r="H130" t="s">
+        <v>697</v>
+      </c>
+      <c r="I130" t="s">
+        <v>1138</v>
+      </c>
+      <c r="J130" t="s">
         <v>698</v>
       </c>
-      <c r="I130" t="s">
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>700</v>
-      </c>
       <c r="B131">
-        <v>4.8</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C131">
-        <v>450480</v>
+        <v>930187</v>
       </c>
       <c r="D131" t="s">
         <v>147</v>
       </c>
       <c r="E131" t="s">
+        <v>700</v>
+      </c>
+      <c r="F131" t="s">
         <v>701</v>
-      </c>
-      <c r="F131" t="s">
-        <v>702</v>
       </c>
       <c r="G131">
         <v>3</v>
       </c>
       <c r="H131" t="s">
+        <v>702</v>
+      </c>
+      <c r="I131" t="s">
+        <v>1139</v>
+      </c>
+      <c r="J131" t="s">
         <v>703</v>
       </c>
-      <c r="I131" t="s">
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
+      <c r="B132">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C132">
+        <v>467581</v>
+      </c>
+      <c r="D132" t="s">
         <v>705</v>
-      </c>
-      <c r="B132">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="C132">
-        <v>930187</v>
-      </c>
-      <c r="D132" t="s">
-        <v>147</v>
       </c>
       <c r="E132" t="s">
         <v>706</v>
@@ -7270,10 +8210,13 @@
         <v>708</v>
       </c>
       <c r="I132" t="s">
+        <v>1140</v>
+      </c>
+      <c r="J132" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>710</v>
       </c>
@@ -7281,213 +8224,234 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="C133">
-        <v>467581</v>
+        <v>366333</v>
       </c>
       <c r="D133" t="s">
+        <v>147</v>
+      </c>
+      <c r="E133" t="s">
         <v>711</v>
       </c>
-      <c r="E133" t="s">
+      <c r="F133" t="s">
         <v>712</v>
-      </c>
-      <c r="F133" t="s">
-        <v>713</v>
       </c>
       <c r="G133">
         <v>3</v>
       </c>
       <c r="H133" t="s">
+        <v>713</v>
+      </c>
+      <c r="I133" t="s">
+        <v>1141</v>
+      </c>
+      <c r="J133" t="s">
         <v>714</v>
       </c>
-      <c r="I133" t="s">
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>716</v>
-      </c>
       <c r="B134">
-        <v>4.4000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="C134">
-        <v>366333</v>
+        <v>992964</v>
       </c>
       <c r="D134" t="s">
         <v>147</v>
       </c>
       <c r="E134" t="s">
+        <v>716</v>
+      </c>
+      <c r="F134" t="s">
         <v>717</v>
-      </c>
-      <c r="F134" t="s">
-        <v>718</v>
       </c>
       <c r="G134">
         <v>3</v>
       </c>
       <c r="H134" t="s">
+        <v>718</v>
+      </c>
+      <c r="I134" t="s">
+        <v>1142</v>
+      </c>
+      <c r="J134" t="s">
         <v>719</v>
       </c>
-      <c r="I134" t="s">
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
         <v>720</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>721</v>
       </c>
       <c r="B135">
         <v>4.5</v>
       </c>
       <c r="C135">
-        <v>992964</v>
+        <v>962195</v>
       </c>
       <c r="D135" t="s">
         <v>147</v>
       </c>
       <c r="E135" t="s">
+        <v>721</v>
+      </c>
+      <c r="F135" t="s">
         <v>722</v>
-      </c>
-      <c r="F135" t="s">
-        <v>723</v>
       </c>
       <c r="G135">
         <v>3</v>
       </c>
       <c r="H135" t="s">
+        <v>723</v>
+      </c>
+      <c r="I135" t="s">
+        <v>1143</v>
+      </c>
+      <c r="J135" t="s">
         <v>724</v>
       </c>
-      <c r="I135" t="s">
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>726</v>
-      </c>
       <c r="B136">
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C136">
-        <v>962195</v>
+        <v>126399</v>
       </c>
       <c r="D136" t="s">
         <v>147</v>
       </c>
       <c r="E136" t="s">
+        <v>726</v>
+      </c>
+      <c r="F136" t="s">
         <v>727</v>
-      </c>
-      <c r="F136" t="s">
-        <v>728</v>
       </c>
       <c r="G136">
         <v>3</v>
       </c>
       <c r="H136" t="s">
+        <v>728</v>
+      </c>
+      <c r="I136" t="s">
+        <v>1144</v>
+      </c>
+      <c r="J136" t="s">
         <v>729</v>
       </c>
-      <c r="I136" t="s">
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
         <v>730</v>
       </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>731</v>
-      </c>
       <c r="B137">
-        <v>4.4000000000000004</v>
+        <v>4.2</v>
       </c>
       <c r="C137">
-        <v>126399</v>
+        <v>598162</v>
       </c>
       <c r="D137" t="s">
         <v>147</v>
       </c>
       <c r="E137" t="s">
+        <v>731</v>
+      </c>
+      <c r="F137" t="s">
         <v>732</v>
-      </c>
-      <c r="F137" t="s">
-        <v>733</v>
       </c>
       <c r="G137">
         <v>3</v>
       </c>
       <c r="H137" t="s">
+        <v>733</v>
+      </c>
+      <c r="I137" t="s">
+        <v>1145</v>
+      </c>
+      <c r="J137" t="s">
         <v>734</v>
       </c>
-      <c r="I137" t="s">
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
         <v>735</v>
       </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>736</v>
-      </c>
       <c r="B138">
-        <v>4.2</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C138">
-        <v>598162</v>
+        <v>443705</v>
       </c>
       <c r="D138" t="s">
         <v>147</v>
       </c>
       <c r="E138" t="s">
+        <v>736</v>
+      </c>
+      <c r="F138" t="s">
         <v>737</v>
-      </c>
-      <c r="F138" t="s">
-        <v>738</v>
       </c>
       <c r="G138">
         <v>3</v>
       </c>
       <c r="H138" t="s">
+        <v>738</v>
+      </c>
+      <c r="I138" t="s">
+        <v>1146</v>
+      </c>
+      <c r="J138" t="s">
         <v>739</v>
       </c>
-      <c r="I138" t="s">
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
         <v>740</v>
       </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>741</v>
-      </c>
       <c r="B139">
-        <v>4.9000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="C139">
-        <v>443705</v>
+        <v>197961</v>
       </c>
       <c r="D139" t="s">
         <v>147</v>
       </c>
       <c r="E139" t="s">
+        <v>741</v>
+      </c>
+      <c r="F139" t="s">
         <v>742</v>
-      </c>
-      <c r="F139" t="s">
-        <v>743</v>
       </c>
       <c r="G139">
         <v>3</v>
       </c>
       <c r="H139" t="s">
+        <v>743</v>
+      </c>
+      <c r="I139" t="s">
+        <v>1147</v>
+      </c>
+      <c r="J139" t="s">
         <v>744</v>
       </c>
-      <c r="I139" t="s">
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
         <v>745</v>
       </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
+      <c r="B140">
+        <v>4.8</v>
+      </c>
+      <c r="C140">
+        <v>755016</v>
+      </c>
+      <c r="D140" t="s">
         <v>746</v>
-      </c>
-      <c r="B140">
-        <v>4.5</v>
-      </c>
-      <c r="C140">
-        <v>197961</v>
-      </c>
-      <c r="D140" t="s">
-        <v>147</v>
       </c>
       <c r="E140" t="s">
         <v>747</v>
@@ -7502,50 +8466,56 @@
         <v>749</v>
       </c>
       <c r="I140" t="s">
+        <v>1148</v>
+      </c>
+      <c r="J140" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>751</v>
       </c>
       <c r="B141">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="C141">
-        <v>755016</v>
+        <v>708729</v>
       </c>
       <c r="D141" t="s">
+        <v>147</v>
+      </c>
+      <c r="E141" t="s">
         <v>752</v>
       </c>
-      <c r="E141" t="s">
+      <c r="F141" t="s">
         <v>753</v>
-      </c>
-      <c r="F141" t="s">
-        <v>754</v>
       </c>
       <c r="G141">
         <v>3</v>
       </c>
       <c r="H141" t="s">
+        <v>754</v>
+      </c>
+      <c r="I141" t="s">
+        <v>1149</v>
+      </c>
+      <c r="J141" t="s">
         <v>755</v>
       </c>
-      <c r="I141" t="s">
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
         <v>756</v>
       </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
+      <c r="B142">
+        <v>4.3</v>
+      </c>
+      <c r="C142">
+        <v>891707</v>
+      </c>
+      <c r="D142" t="s">
         <v>757</v>
-      </c>
-      <c r="B142">
-        <v>4.7</v>
-      </c>
-      <c r="C142">
-        <v>708729</v>
-      </c>
-      <c r="D142" t="s">
-        <v>147</v>
       </c>
       <c r="E142" t="s">
         <v>758</v>
@@ -7560,50 +8530,56 @@
         <v>760</v>
       </c>
       <c r="I142" t="s">
+        <v>1150</v>
+      </c>
+      <c r="J142" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>762</v>
       </c>
       <c r="B143">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="C143">
-        <v>891707</v>
+        <v>516585</v>
       </c>
       <c r="D143" t="s">
+        <v>147</v>
+      </c>
+      <c r="E143" t="s">
         <v>763</v>
       </c>
-      <c r="E143" t="s">
+      <c r="F143" t="s">
         <v>764</v>
-      </c>
-      <c r="F143" t="s">
-        <v>765</v>
       </c>
       <c r="G143">
         <v>3</v>
       </c>
       <c r="H143" t="s">
+        <v>765</v>
+      </c>
+      <c r="I143" t="s">
+        <v>1151</v>
+      </c>
+      <c r="J143" t="s">
         <v>766</v>
       </c>
-      <c r="I143" t="s">
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
+      <c r="B144">
+        <v>4.7</v>
+      </c>
+      <c r="C144">
+        <v>897781</v>
+      </c>
+      <c r="D144" t="s">
         <v>768</v>
-      </c>
-      <c r="B144">
-        <v>4.8</v>
-      </c>
-      <c r="C144">
-        <v>516585</v>
-      </c>
-      <c r="D144" t="s">
-        <v>147</v>
       </c>
       <c r="E144" t="s">
         <v>769</v>
@@ -7618,50 +8594,56 @@
         <v>771</v>
       </c>
       <c r="I144" t="s">
+        <v>1152</v>
+      </c>
+      <c r="J144" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>773</v>
       </c>
       <c r="B145">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="C145">
-        <v>897781</v>
+        <v>148271</v>
       </c>
       <c r="D145" t="s">
+        <v>147</v>
+      </c>
+      <c r="E145" t="s">
         <v>774</v>
       </c>
-      <c r="E145" t="s">
+      <c r="F145" t="s">
         <v>775</v>
-      </c>
-      <c r="F145" t="s">
-        <v>776</v>
       </c>
       <c r="G145">
         <v>3</v>
       </c>
       <c r="H145" t="s">
+        <v>776</v>
+      </c>
+      <c r="I145" t="s">
+        <v>1153</v>
+      </c>
+      <c r="J145" t="s">
         <v>777</v>
       </c>
-      <c r="I145" t="s">
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
         <v>778</v>
       </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
+      <c r="B146">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C146">
+        <v>927834</v>
+      </c>
+      <c r="D146" t="s">
         <v>779</v>
-      </c>
-      <c r="B146">
-        <v>4.8</v>
-      </c>
-      <c r="C146">
-        <v>148271</v>
-      </c>
-      <c r="D146" t="s">
-        <v>147</v>
       </c>
       <c r="E146" t="s">
         <v>780</v>
@@ -7676,137 +8658,152 @@
         <v>782</v>
       </c>
       <c r="I146" t="s">
+        <v>1154</v>
+      </c>
+      <c r="J146" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>784</v>
       </c>
       <c r="B147">
-        <v>4.5999999999999996</v>
+        <v>4.8</v>
       </c>
       <c r="C147">
-        <v>927834</v>
+        <v>322220</v>
       </c>
       <c r="D147" t="s">
+        <v>147</v>
+      </c>
+      <c r="E147" t="s">
         <v>785</v>
       </c>
-      <c r="E147" t="s">
+      <c r="F147" t="s">
         <v>786</v>
-      </c>
-      <c r="F147" t="s">
-        <v>787</v>
       </c>
       <c r="G147">
         <v>3</v>
       </c>
       <c r="H147" t="s">
+        <v>787</v>
+      </c>
+      <c r="I147" t="s">
+        <v>1155</v>
+      </c>
+      <c r="J147" t="s">
         <v>788</v>
       </c>
-      <c r="I147" t="s">
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
         <v>789</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>790</v>
       </c>
       <c r="B148">
         <v>4.8</v>
       </c>
       <c r="C148">
-        <v>322220</v>
+        <v>563837</v>
       </c>
       <c r="D148" t="s">
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>790</v>
+      </c>
+      <c r="F148" t="s">
         <v>791</v>
-      </c>
-      <c r="F148" t="s">
-        <v>792</v>
       </c>
       <c r="G148">
         <v>3</v>
       </c>
       <c r="H148" t="s">
+        <v>792</v>
+      </c>
+      <c r="I148" t="s">
+        <v>1156</v>
+      </c>
+      <c r="J148" t="s">
         <v>793</v>
       </c>
-      <c r="I148" t="s">
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
         <v>794</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>795</v>
       </c>
       <c r="B149">
         <v>4.8</v>
       </c>
       <c r="C149">
-        <v>563837</v>
+        <v>554262</v>
       </c>
       <c r="D149" t="s">
-        <v>147</v>
+        <v>768</v>
       </c>
       <c r="E149" t="s">
+        <v>795</v>
+      </c>
+      <c r="F149" t="s">
         <v>796</v>
-      </c>
-      <c r="F149" t="s">
-        <v>797</v>
       </c>
       <c r="G149">
         <v>3</v>
       </c>
       <c r="H149" t="s">
+        <v>797</v>
+      </c>
+      <c r="I149" t="s">
+        <v>1157</v>
+      </c>
+      <c r="J149" t="s">
         <v>798</v>
       </c>
-      <c r="I149" t="s">
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
         <v>799</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>800</v>
       </c>
       <c r="B150">
         <v>4.8</v>
       </c>
       <c r="C150">
-        <v>554262</v>
+        <v>951668</v>
       </c>
       <c r="D150" t="s">
-        <v>774</v>
+        <v>239</v>
       </c>
       <c r="E150" t="s">
+        <v>800</v>
+      </c>
+      <c r="F150" t="s">
         <v>801</v>
-      </c>
-      <c r="F150" t="s">
-        <v>802</v>
       </c>
       <c r="G150">
         <v>3</v>
       </c>
       <c r="H150" t="s">
+        <v>802</v>
+      </c>
+      <c r="I150" t="s">
+        <v>1158</v>
+      </c>
+      <c r="J150" t="s">
         <v>803</v>
       </c>
-      <c r="I150" t="s">
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
         <v>804</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>805</v>
       </c>
       <c r="B151">
         <v>4.8</v>
       </c>
       <c r="C151">
-        <v>951668</v>
+        <v>537829</v>
       </c>
       <c r="D151" t="s">
-        <v>245</v>
+        <v>805</v>
       </c>
       <c r="E151" t="s">
         <v>806</v>
@@ -7821,18 +8818,21 @@
         <v>808</v>
       </c>
       <c r="I151" t="s">
+        <v>1159</v>
+      </c>
+      <c r="J151" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>810</v>
       </c>
       <c r="B152">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="C152">
-        <v>537829</v>
+        <v>883002</v>
       </c>
       <c r="D152" t="s">
         <v>811</v>
@@ -7850,137 +8850,152 @@
         <v>814</v>
       </c>
       <c r="I152" t="s">
+        <v>1160</v>
+      </c>
+      <c r="J152" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>816</v>
       </c>
       <c r="B153">
-        <v>4.7</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C153">
-        <v>883002</v>
+        <v>917914</v>
       </c>
       <c r="D153" t="s">
+        <v>147</v>
+      </c>
+      <c r="E153" t="s">
         <v>817</v>
       </c>
-      <c r="E153" t="s">
+      <c r="F153" t="s">
         <v>818</v>
-      </c>
-      <c r="F153" t="s">
-        <v>819</v>
       </c>
       <c r="G153">
         <v>3</v>
       </c>
       <c r="H153" t="s">
+        <v>819</v>
+      </c>
+      <c r="I153" t="s">
+        <v>1161</v>
+      </c>
+      <c r="J153" t="s">
         <v>820</v>
       </c>
-      <c r="I153" t="s">
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
         <v>821</v>
       </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>822</v>
-      </c>
       <c r="B154">
-        <v>4.4000000000000004</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C154">
-        <v>917914</v>
+        <v>227804</v>
       </c>
       <c r="D154" t="s">
         <v>147</v>
       </c>
       <c r="E154" t="s">
+        <v>822</v>
+      </c>
+      <c r="F154" t="s">
         <v>823</v>
-      </c>
-      <c r="F154" t="s">
-        <v>824</v>
       </c>
       <c r="G154">
         <v>3</v>
       </c>
       <c r="H154" t="s">
+        <v>824</v>
+      </c>
+      <c r="I154" t="s">
+        <v>1162</v>
+      </c>
+      <c r="J154" t="s">
         <v>825</v>
       </c>
-      <c r="I154" t="s">
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>827</v>
-      </c>
       <c r="B155">
-        <v>4.5999999999999996</v>
+        <v>4.7</v>
       </c>
       <c r="C155">
-        <v>227804</v>
+        <v>928073</v>
       </c>
       <c r="D155" t="s">
         <v>147</v>
       </c>
       <c r="E155" t="s">
+        <v>827</v>
+      </c>
+      <c r="F155" t="s">
         <v>828</v>
-      </c>
-      <c r="F155" t="s">
-        <v>829</v>
       </c>
       <c r="G155">
         <v>3</v>
       </c>
       <c r="H155" t="s">
+        <v>829</v>
+      </c>
+      <c r="I155" t="s">
+        <v>1163</v>
+      </c>
+      <c r="J155" t="s">
         <v>830</v>
       </c>
-      <c r="I155" t="s">
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
         <v>831</v>
       </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>832</v>
-      </c>
       <c r="B156">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="C156">
-        <v>928073</v>
+        <v>721688</v>
       </c>
       <c r="D156" t="s">
         <v>147</v>
       </c>
       <c r="E156" t="s">
+        <v>832</v>
+      </c>
+      <c r="F156" t="s">
         <v>833</v>
-      </c>
-      <c r="F156" t="s">
-        <v>834</v>
       </c>
       <c r="G156">
         <v>3</v>
       </c>
       <c r="H156" t="s">
+        <v>834</v>
+      </c>
+      <c r="I156" t="s">
+        <v>1164</v>
+      </c>
+      <c r="J156" t="s">
         <v>835</v>
       </c>
-      <c r="I156" t="s">
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
         <v>836</v>
       </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
+      <c r="B157">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C157">
+        <v>341412</v>
+      </c>
+      <c r="D157" t="s">
         <v>837</v>
-      </c>
-      <c r="B157">
-        <v>4.8</v>
-      </c>
-      <c r="C157">
-        <v>721688</v>
-      </c>
-      <c r="D157" t="s">
-        <v>147</v>
       </c>
       <c r="E157" t="s">
         <v>838</v>
@@ -7995,50 +9010,56 @@
         <v>840</v>
       </c>
       <c r="I157" t="s">
+        <v>1165</v>
+      </c>
+      <c r="J157" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>842</v>
       </c>
       <c r="B158">
-        <v>4.9000000000000004</v>
+        <v>4.7</v>
       </c>
       <c r="C158">
-        <v>341412</v>
+        <v>207141</v>
       </c>
       <c r="D158" t="s">
+        <v>147</v>
+      </c>
+      <c r="E158" t="s">
         <v>843</v>
       </c>
-      <c r="E158" t="s">
+      <c r="F158" t="s">
         <v>844</v>
-      </c>
-      <c r="F158" t="s">
-        <v>845</v>
       </c>
       <c r="G158">
         <v>3</v>
       </c>
       <c r="H158" t="s">
+        <v>845</v>
+      </c>
+      <c r="I158" t="s">
+        <v>1166</v>
+      </c>
+      <c r="J158" t="s">
         <v>846</v>
       </c>
-      <c r="I158" t="s">
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
         <v>847</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>848</v>
       </c>
       <c r="B159">
         <v>4.7</v>
       </c>
       <c r="C159">
-        <v>207141</v>
+        <v>960907</v>
       </c>
       <c r="D159" t="s">
-        <v>147</v>
+        <v>848</v>
       </c>
       <c r="E159" t="s">
         <v>849</v>
@@ -8053,50 +9074,56 @@
         <v>851</v>
       </c>
       <c r="I159" t="s">
+        <v>1167</v>
+      </c>
+      <c r="J159" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>853</v>
       </c>
       <c r="B160">
-        <v>4.7</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C160">
-        <v>960907</v>
+        <v>693072</v>
       </c>
       <c r="D160" t="s">
+        <v>318</v>
+      </c>
+      <c r="E160" t="s">
         <v>854</v>
       </c>
-      <c r="E160" t="s">
+      <c r="F160" t="s">
         <v>855</v>
-      </c>
-      <c r="F160" t="s">
-        <v>856</v>
       </c>
       <c r="G160">
         <v>3</v>
       </c>
       <c r="H160" t="s">
+        <v>856</v>
+      </c>
+      <c r="I160" t="s">
+        <v>1168</v>
+      </c>
+      <c r="J160" t="s">
         <v>857</v>
       </c>
-      <c r="I160" t="s">
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
         <v>858</v>
       </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
+      <c r="B161">
+        <v>4.7</v>
+      </c>
+      <c r="C161">
+        <v>463612</v>
+      </c>
+      <c r="D161" t="s">
         <v>859</v>
-      </c>
-      <c r="B161">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="C161">
-        <v>693072</v>
-      </c>
-      <c r="D161" t="s">
-        <v>324</v>
       </c>
       <c r="E161" t="s">
         <v>860</v>
@@ -8111,10 +9138,13 @@
         <v>862</v>
       </c>
       <c r="I161" t="s">
+        <v>1169</v>
+      </c>
+      <c r="J161" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>864</v>
       </c>
@@ -8122,39 +9152,42 @@
         <v>4.7</v>
       </c>
       <c r="C162">
-        <v>463612</v>
+        <v>303350</v>
       </c>
       <c r="D162" t="s">
+        <v>462</v>
+      </c>
+      <c r="E162" t="s">
         <v>865</v>
       </c>
-      <c r="E162" t="s">
+      <c r="F162" t="s">
         <v>866</v>
-      </c>
-      <c r="F162" t="s">
-        <v>867</v>
       </c>
       <c r="G162">
         <v>3</v>
       </c>
       <c r="H162" t="s">
+        <v>867</v>
+      </c>
+      <c r="I162" t="s">
+        <v>1170</v>
+      </c>
+      <c r="J162" t="s">
         <v>868</v>
       </c>
-      <c r="I162" t="s">
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
         <v>869</v>
       </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
+      <c r="B163">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C163">
+        <v>104738</v>
+      </c>
+      <c r="D163" t="s">
         <v>870</v>
-      </c>
-      <c r="B163">
-        <v>4.7</v>
-      </c>
-      <c r="C163">
-        <v>303350</v>
-      </c>
-      <c r="D163" t="s">
-        <v>468</v>
       </c>
       <c r="E163" t="s">
         <v>871</v>
@@ -8169,79 +9202,88 @@
         <v>873</v>
       </c>
       <c r="I163" t="s">
+        <v>1171</v>
+      </c>
+      <c r="J163" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>875</v>
       </c>
       <c r="B164">
-        <v>4.5999999999999996</v>
+        <v>4.7</v>
       </c>
       <c r="C164">
-        <v>104738</v>
+        <v>274391</v>
       </c>
       <c r="D164" t="s">
+        <v>147</v>
+      </c>
+      <c r="E164" t="s">
         <v>876</v>
       </c>
-      <c r="E164" t="s">
+      <c r="F164" t="s">
         <v>877</v>
-      </c>
-      <c r="F164" t="s">
-        <v>878</v>
       </c>
       <c r="G164">
         <v>3</v>
       </c>
       <c r="H164" t="s">
+        <v>878</v>
+      </c>
+      <c r="I164" t="s">
+        <v>1172</v>
+      </c>
+      <c r="J164" t="s">
         <v>879</v>
       </c>
-      <c r="I164" t="s">
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
         <v>880</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>881</v>
       </c>
       <c r="B165">
         <v>4.7</v>
       </c>
       <c r="C165">
-        <v>274391</v>
+        <v>568229</v>
       </c>
       <c r="D165" t="s">
-        <v>147</v>
+        <v>439</v>
       </c>
       <c r="E165" t="s">
+        <v>881</v>
+      </c>
+      <c r="F165" t="s">
         <v>882</v>
-      </c>
-      <c r="F165" t="s">
-        <v>883</v>
       </c>
       <c r="G165">
         <v>3</v>
       </c>
       <c r="H165" t="s">
+        <v>883</v>
+      </c>
+      <c r="I165" t="s">
+        <v>1173</v>
+      </c>
+      <c r="J165" t="s">
         <v>884</v>
       </c>
-      <c r="I165" t="s">
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
         <v>885</v>
       </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
+      <c r="B166">
+        <v>4.3</v>
+      </c>
+      <c r="C166">
+        <v>251013</v>
+      </c>
+      <c r="D166" t="s">
         <v>886</v>
-      </c>
-      <c r="B166">
-        <v>4.7</v>
-      </c>
-      <c r="C166">
-        <v>568229</v>
-      </c>
-      <c r="D166" t="s">
-        <v>445</v>
       </c>
       <c r="E166" t="s">
         <v>887</v>
@@ -8256,18 +9298,21 @@
         <v>889</v>
       </c>
       <c r="I166" t="s">
+        <v>1174</v>
+      </c>
+      <c r="J166" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>891</v>
       </c>
       <c r="B167">
-        <v>4.3</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C167">
-        <v>251013</v>
+        <v>299185</v>
       </c>
       <c r="D167" t="s">
         <v>892</v>
@@ -8285,10 +9330,13 @@
         <v>895</v>
       </c>
       <c r="I167" t="s">
+        <v>1175</v>
+      </c>
+      <c r="J167" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>897</v>
       </c>
@@ -8296,155 +9344,170 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="C168">
-        <v>299185</v>
+        <v>470793</v>
       </c>
       <c r="D168" t="s">
+        <v>400</v>
+      </c>
+      <c r="E168" t="s">
         <v>898</v>
       </c>
-      <c r="E168" t="s">
+      <c r="F168" t="s">
         <v>899</v>
-      </c>
-      <c r="F168" t="s">
-        <v>900</v>
       </c>
       <c r="G168">
         <v>3</v>
       </c>
       <c r="H168" t="s">
+        <v>900</v>
+      </c>
+      <c r="I168" t="s">
+        <v>1176</v>
+      </c>
+      <c r="J168" t="s">
         <v>901</v>
       </c>
-      <c r="I168" t="s">
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
         <v>902</v>
       </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
+      <c r="B169">
+        <v>4.7</v>
+      </c>
+      <c r="C169">
+        <v>133470</v>
+      </c>
+      <c r="D169" t="s">
+        <v>427</v>
+      </c>
+      <c r="E169" t="s">
         <v>903</v>
       </c>
-      <c r="B169">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="C169">
-        <v>470793</v>
-      </c>
-      <c r="D169" t="s">
-        <v>406</v>
-      </c>
-      <c r="E169" t="s">
+      <c r="F169" t="s">
         <v>904</v>
-      </c>
-      <c r="F169" t="s">
-        <v>905</v>
       </c>
       <c r="G169">
         <v>3</v>
       </c>
       <c r="H169" t="s">
+        <v>905</v>
+      </c>
+      <c r="I169" t="s">
+        <v>1177</v>
+      </c>
+      <c r="J169" t="s">
         <v>906</v>
       </c>
-      <c r="I169" t="s">
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
         <v>907</v>
       </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
+      <c r="B170">
+        <v>4.5</v>
+      </c>
+      <c r="C170">
+        <v>228137</v>
+      </c>
+      <c r="D170" t="s">
+        <v>439</v>
+      </c>
+      <c r="E170" t="s">
         <v>908</v>
       </c>
-      <c r="B170">
-        <v>4.7</v>
-      </c>
-      <c r="C170">
-        <v>133470</v>
-      </c>
-      <c r="D170" t="s">
-        <v>433</v>
-      </c>
-      <c r="E170" t="s">
+      <c r="F170" t="s">
         <v>909</v>
-      </c>
-      <c r="F170" t="s">
-        <v>910</v>
       </c>
       <c r="G170">
         <v>3</v>
       </c>
       <c r="H170" t="s">
+        <v>910</v>
+      </c>
+      <c r="I170" t="s">
+        <v>1178</v>
+      </c>
+      <c r="J170" t="s">
         <v>911</v>
       </c>
-      <c r="I170" t="s">
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
         <v>912</v>
       </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
+      <c r="B171">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C171">
+        <v>246243</v>
+      </c>
+      <c r="D171" t="s">
+        <v>870</v>
+      </c>
+      <c r="E171" t="s">
         <v>913</v>
       </c>
-      <c r="B171">
-        <v>4.5</v>
-      </c>
-      <c r="C171">
-        <v>228137</v>
-      </c>
-      <c r="D171" t="s">
-        <v>445</v>
-      </c>
-      <c r="E171" t="s">
+      <c r="F171" t="s">
         <v>914</v>
-      </c>
-      <c r="F171" t="s">
-        <v>915</v>
       </c>
       <c r="G171">
         <v>3</v>
       </c>
       <c r="H171" t="s">
+        <v>915</v>
+      </c>
+      <c r="I171" t="s">
+        <v>1179</v>
+      </c>
+      <c r="J171" t="s">
         <v>916</v>
       </c>
-      <c r="I171" t="s">
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
         <v>917</v>
       </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
+      <c r="B172">
+        <v>4.5</v>
+      </c>
+      <c r="C172">
+        <v>562184</v>
+      </c>
+      <c r="D172" t="s">
+        <v>147</v>
+      </c>
+      <c r="E172" t="s">
         <v>918</v>
       </c>
-      <c r="B172">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="C172">
-        <v>246243</v>
-      </c>
-      <c r="D172" t="s">
-        <v>876</v>
-      </c>
-      <c r="E172" t="s">
+      <c r="F172" t="s">
         <v>919</v>
-      </c>
-      <c r="F172" t="s">
-        <v>920</v>
       </c>
       <c r="G172">
         <v>3</v>
       </c>
       <c r="H172" t="s">
+        <v>920</v>
+      </c>
+      <c r="I172" t="s">
+        <v>1180</v>
+      </c>
+      <c r="J172" t="s">
         <v>921</v>
       </c>
-      <c r="I172" t="s">
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
         <v>922</v>
       </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
+      <c r="B173">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C173">
+        <v>306487</v>
+      </c>
+      <c r="D173" t="s">
         <v>923</v>
-      </c>
-      <c r="B173">
-        <v>4.5</v>
-      </c>
-      <c r="C173">
-        <v>562184</v>
-      </c>
-      <c r="D173" t="s">
-        <v>147</v>
       </c>
       <c r="E173" t="s">
         <v>924</v>
@@ -8459,398 +9522,440 @@
         <v>926</v>
       </c>
       <c r="I173" t="s">
+        <v>1181</v>
+      </c>
+      <c r="J173" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>928</v>
       </c>
       <c r="B174">
-        <v>4.5999999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="C174">
-        <v>306487</v>
+        <v>606707</v>
       </c>
       <c r="D174" t="s">
+        <v>462</v>
+      </c>
+      <c r="E174" t="s">
         <v>929</v>
       </c>
-      <c r="E174" t="s">
+      <c r="F174" t="s">
         <v>930</v>
-      </c>
-      <c r="F174" t="s">
-        <v>931</v>
       </c>
       <c r="G174">
         <v>3</v>
       </c>
       <c r="H174" t="s">
+        <v>931</v>
+      </c>
+      <c r="I174" t="s">
+        <v>1182</v>
+      </c>
+      <c r="J174" t="s">
         <v>932</v>
       </c>
-      <c r="I174" t="s">
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
         <v>933</v>
       </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
+      <c r="B175">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C175">
+        <v>498739</v>
+      </c>
+      <c r="D175" t="s">
+        <v>892</v>
+      </c>
+      <c r="E175" t="s">
         <v>934</v>
       </c>
-      <c r="B175">
-        <v>4.5</v>
-      </c>
-      <c r="C175">
-        <v>606707</v>
-      </c>
-      <c r="D175" t="s">
-        <v>468</v>
-      </c>
-      <c r="E175" t="s">
+      <c r="F175" t="s">
         <v>935</v>
-      </c>
-      <c r="F175" t="s">
-        <v>936</v>
       </c>
       <c r="G175">
         <v>3</v>
       </c>
       <c r="H175" t="s">
+        <v>936</v>
+      </c>
+      <c r="I175" t="s">
+        <v>1183</v>
+      </c>
+      <c r="J175" t="s">
         <v>937</v>
       </c>
-      <c r="I175" t="s">
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
+      <c r="B176">
+        <v>4.5</v>
+      </c>
+      <c r="C176">
+        <v>934613</v>
+      </c>
+      <c r="D176" t="s">
+        <v>439</v>
+      </c>
+      <c r="E176" t="s">
         <v>939</v>
       </c>
-      <c r="B176">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="C176">
-        <v>498739</v>
-      </c>
-      <c r="D176" t="s">
-        <v>898</v>
-      </c>
-      <c r="E176" t="s">
+      <c r="F176" t="s">
         <v>940</v>
-      </c>
-      <c r="F176" t="s">
-        <v>941</v>
       </c>
       <c r="G176">
         <v>3</v>
       </c>
       <c r="H176" t="s">
+        <v>941</v>
+      </c>
+      <c r="I176" t="s">
+        <v>1184</v>
+      </c>
+      <c r="J176" t="s">
         <v>942</v>
       </c>
-      <c r="I176" t="s">
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
         <v>943</v>
       </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
+      <c r="B177">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C177">
+        <v>637717</v>
+      </c>
+      <c r="D177" t="s">
+        <v>344</v>
+      </c>
+      <c r="E177" t="s">
         <v>944</v>
       </c>
-      <c r="B177">
-        <v>4.5</v>
-      </c>
-      <c r="C177">
-        <v>934613</v>
-      </c>
-      <c r="D177" t="s">
-        <v>445</v>
-      </c>
-      <c r="E177" t="s">
+      <c r="F177" t="s">
         <v>945</v>
-      </c>
-      <c r="F177" t="s">
-        <v>946</v>
       </c>
       <c r="G177">
         <v>3</v>
       </c>
       <c r="H177" t="s">
+        <v>946</v>
+      </c>
+      <c r="I177" t="s">
+        <v>1185</v>
+      </c>
+      <c r="J177" t="s">
         <v>947</v>
       </c>
-      <c r="I177" t="s">
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
         <v>948</v>
       </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
+      <c r="B178">
+        <v>4.7</v>
+      </c>
+      <c r="C178">
+        <v>939682</v>
+      </c>
+      <c r="D178" t="s">
+        <v>147</v>
+      </c>
+      <c r="E178" t="s">
         <v>949</v>
       </c>
-      <c r="B178">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="C178">
-        <v>637717</v>
-      </c>
-      <c r="D178" t="s">
-        <v>350</v>
-      </c>
-      <c r="E178" t="s">
+      <c r="F178" t="s">
         <v>950</v>
-      </c>
-      <c r="F178" t="s">
-        <v>951</v>
       </c>
       <c r="G178">
         <v>3</v>
       </c>
       <c r="H178" t="s">
+        <v>951</v>
+      </c>
+      <c r="I178" t="s">
+        <v>1186</v>
+      </c>
+      <c r="J178" t="s">
         <v>952</v>
       </c>
-      <c r="I178" t="s">
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
         <v>953</v>
       </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
+      <c r="B179">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C179">
+        <v>480760</v>
+      </c>
+      <c r="D179" t="s">
+        <v>344</v>
+      </c>
+      <c r="E179" t="s">
         <v>954</v>
       </c>
-      <c r="B179">
-        <v>4.7</v>
-      </c>
-      <c r="C179">
-        <v>939682</v>
-      </c>
-      <c r="D179" t="s">
-        <v>147</v>
-      </c>
-      <c r="E179" t="s">
+      <c r="F179" t="s">
         <v>955</v>
-      </c>
-      <c r="F179" t="s">
-        <v>956</v>
       </c>
       <c r="G179">
         <v>3</v>
       </c>
       <c r="H179" t="s">
+        <v>956</v>
+      </c>
+      <c r="I179" t="s">
+        <v>1187</v>
+      </c>
+      <c r="J179" t="s">
         <v>957</v>
       </c>
-      <c r="I179" t="s">
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
         <v>958</v>
       </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
+      <c r="B180">
+        <v>4.3</v>
+      </c>
+      <c r="C180">
+        <v>288822</v>
+      </c>
+      <c r="D180" t="s">
+        <v>439</v>
+      </c>
+      <c r="E180" t="s">
         <v>959</v>
       </c>
-      <c r="B180">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="C180">
-        <v>480760</v>
-      </c>
-      <c r="D180" t="s">
-        <v>350</v>
-      </c>
-      <c r="E180" t="s">
+      <c r="F180" t="s">
         <v>960</v>
-      </c>
-      <c r="F180" t="s">
-        <v>961</v>
       </c>
       <c r="G180">
         <v>3</v>
       </c>
       <c r="H180" t="s">
+        <v>961</v>
+      </c>
+      <c r="I180" t="s">
+        <v>1188</v>
+      </c>
+      <c r="J180" t="s">
         <v>962</v>
       </c>
-      <c r="I180" t="s">
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
+      <c r="B181">
+        <v>4.8</v>
+      </c>
+      <c r="C181">
+        <v>931664</v>
+      </c>
+      <c r="D181" t="s">
+        <v>147</v>
+      </c>
+      <c r="E181" t="s">
         <v>964</v>
       </c>
-      <c r="B181">
-        <v>4.3</v>
-      </c>
-      <c r="C181">
-        <v>288822</v>
-      </c>
-      <c r="D181" t="s">
-        <v>445</v>
-      </c>
-      <c r="E181" t="s">
+      <c r="F181" t="s">
         <v>965</v>
-      </c>
-      <c r="F181" t="s">
-        <v>966</v>
       </c>
       <c r="G181">
         <v>3</v>
       </c>
       <c r="H181" t="s">
+        <v>966</v>
+      </c>
+      <c r="I181" t="s">
+        <v>1189</v>
+      </c>
+      <c r="J181" t="s">
         <v>967</v>
       </c>
-      <c r="I181" t="s">
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
         <v>968</v>
       </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
-        <v>969</v>
-      </c>
       <c r="B182">
-        <v>4.8</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C182">
-        <v>931664</v>
+        <v>860072</v>
       </c>
       <c r="D182" t="s">
         <v>147</v>
       </c>
       <c r="E182" t="s">
+        <v>969</v>
+      </c>
+      <c r="F182" t="s">
         <v>970</v>
-      </c>
-      <c r="F182" t="s">
-        <v>971</v>
       </c>
       <c r="G182">
         <v>3</v>
       </c>
       <c r="H182" t="s">
+        <v>971</v>
+      </c>
+      <c r="I182" t="s">
+        <v>1190</v>
+      </c>
+      <c r="J182" t="s">
         <v>972</v>
       </c>
-      <c r="I182" t="s">
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
         <v>973</v>
       </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>974</v>
-      </c>
       <c r="B183">
-        <v>4.5999999999999996</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C183">
-        <v>860072</v>
+        <v>661463</v>
       </c>
       <c r="D183" t="s">
         <v>147</v>
       </c>
       <c r="E183" t="s">
+        <v>974</v>
+      </c>
+      <c r="F183" t="s">
         <v>975</v>
-      </c>
-      <c r="F183" t="s">
-        <v>976</v>
       </c>
       <c r="G183">
         <v>3</v>
       </c>
       <c r="H183" t="s">
+        <v>976</v>
+      </c>
+      <c r="I183" t="s">
+        <v>1191</v>
+      </c>
+      <c r="J183" t="s">
         <v>977</v>
       </c>
-      <c r="I183" t="s">
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
         <v>978</v>
       </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
+      <c r="B184">
+        <v>4.5</v>
+      </c>
+      <c r="C184">
+        <v>871687</v>
+      </c>
+      <c r="D184" t="s">
+        <v>439</v>
+      </c>
+      <c r="E184" t="s">
         <v>979</v>
       </c>
-      <c r="B184">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="C184">
-        <v>661463</v>
-      </c>
-      <c r="D184" t="s">
-        <v>147</v>
-      </c>
-      <c r="E184" t="s">
+      <c r="F184" t="s">
         <v>980</v>
-      </c>
-      <c r="F184" t="s">
-        <v>981</v>
       </c>
       <c r="G184">
         <v>3</v>
       </c>
       <c r="H184" t="s">
+        <v>981</v>
+      </c>
+      <c r="I184" t="s">
+        <v>1192</v>
+      </c>
+      <c r="J184" t="s">
         <v>982</v>
       </c>
-      <c r="I184" t="s">
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
         <v>983</v>
       </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
+      <c r="B185">
+        <v>4.3</v>
+      </c>
+      <c r="C185">
+        <v>265458</v>
+      </c>
+      <c r="D185" t="s">
+        <v>344</v>
+      </c>
+      <c r="E185" t="s">
         <v>984</v>
       </c>
-      <c r="B185">
-        <v>4.5</v>
-      </c>
-      <c r="C185">
-        <v>871687</v>
-      </c>
-      <c r="D185" t="s">
-        <v>445</v>
-      </c>
-      <c r="E185" t="s">
+      <c r="F185" t="s">
         <v>985</v>
-      </c>
-      <c r="F185" t="s">
-        <v>986</v>
       </c>
       <c r="G185">
         <v>3</v>
       </c>
       <c r="H185" t="s">
+        <v>986</v>
+      </c>
+      <c r="I185" t="s">
+        <v>1193</v>
+      </c>
+      <c r="J185" t="s">
         <v>987</v>
       </c>
-      <c r="I185" t="s">
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
         <v>988</v>
       </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
+      <c r="B186">
+        <v>4.5</v>
+      </c>
+      <c r="C186">
+        <v>505870</v>
+      </c>
+      <c r="D186" t="s">
+        <v>344</v>
+      </c>
+      <c r="E186" t="s">
         <v>989</v>
       </c>
-      <c r="B186">
-        <v>4.3</v>
-      </c>
-      <c r="C186">
-        <v>265458</v>
-      </c>
-      <c r="D186" t="s">
-        <v>350</v>
-      </c>
-      <c r="E186" t="s">
+      <c r="F186" t="s">
         <v>990</v>
-      </c>
-      <c r="F186" t="s">
-        <v>991</v>
       </c>
       <c r="G186">
         <v>3</v>
       </c>
       <c r="H186" t="s">
+        <v>991</v>
+      </c>
+      <c r="I186" t="s">
+        <v>1194</v>
+      </c>
+      <c r="J186" t="s">
         <v>992</v>
       </c>
-      <c r="I186" t="s">
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
         <v>993</v>
       </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
+      <c r="B187">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C187">
+        <v>102220</v>
+      </c>
+      <c r="D187" t="s">
         <v>994</v>
-      </c>
-      <c r="B187">
-        <v>4.5</v>
-      </c>
-      <c r="C187">
-        <v>505870</v>
-      </c>
-      <c r="D187" t="s">
-        <v>350</v>
       </c>
       <c r="E187" t="s">
         <v>995</v>
@@ -8865,65 +9970,42 @@
         <v>997</v>
       </c>
       <c r="I187" t="s">
+        <v>1195</v>
+      </c>
+      <c r="J187" t="s">
         <v>998</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>999</v>
       </c>
       <c r="B188">
-        <v>4.0999999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="C188">
-        <v>102220</v>
+        <v>821293</v>
       </c>
       <c r="D188" t="s">
+        <v>147</v>
+      </c>
+      <c r="E188" t="s">
         <v>1000</v>
       </c>
-      <c r="E188" t="s">
+      <c r="F188" t="s">
         <v>1001</v>
-      </c>
-      <c r="F188" t="s">
-        <v>1002</v>
       </c>
       <c r="G188">
         <v>3</v>
       </c>
       <c r="H188" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I188" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J188" t="s">
         <v>1003</v>
-      </c>
-      <c r="I188" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
-        <v>1005</v>
-      </c>
-      <c r="B189">
-        <v>4.5</v>
-      </c>
-      <c r="C189">
-        <v>821293</v>
-      </c>
-      <c r="D189" t="s">
-        <v>147</v>
-      </c>
-      <c r="E189" t="s">
-        <v>1006</v>
-      </c>
-      <c r="F189" t="s">
-        <v>1007</v>
-      </c>
-      <c r="G189">
-        <v>3</v>
-      </c>
-      <c r="H189" t="s">
-        <v>1008</v>
-      </c>
-      <c r="I189" t="s">
-        <v>1009</v>
       </c>
     </row>
   </sheetData>
